--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormM.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormM.xlsx
@@ -1168,12 +1168,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1192,12 +1186,267 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1222,259 +1471,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1515,7 +1515,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B56624C-1233-49D2-9CB9-545A0C2A2FFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B56624C-1233-49D2-9CB9-545A0C2A2FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1565,7 +1565,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7F6AEB-11BF-401D-B563-707E8E21283D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E7F6AEB-11BF-401D-B563-707E8E21283D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1644,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B55EC58-4E85-4A3D-A28F-DF4AB162F35E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B55EC58-4E85-4A3D-A28F-DF4AB162F35E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2061,7 +2061,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2083,370 +2083,370 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="88"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="94" t="s">
+      <c r="A1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="95"/>
-      <c r="I1" s="95"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
-      <c r="R1" s="95"/>
-      <c r="S1" s="95"/>
-      <c r="T1" s="95"/>
-      <c r="U1" s="95"/>
-      <c r="V1" s="95"/>
-      <c r="W1" s="95"/>
-      <c r="X1" s="95"/>
-      <c r="Y1" s="95"/>
-      <c r="Z1" s="95"/>
-      <c r="AA1" s="95"/>
-      <c r="AB1" s="95"/>
-      <c r="AC1" s="95"/>
-      <c r="AD1" s="95"/>
-      <c r="AE1" s="95"/>
-      <c r="AF1" s="95"/>
-      <c r="AG1" s="95"/>
-      <c r="AH1" s="96"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="31"/>
+      <c r="AB1" s="31"/>
+      <c r="AC1" s="31"/>
+      <c r="AD1" s="31"/>
+      <c r="AE1" s="31"/>
+      <c r="AF1" s="31"/>
+      <c r="AG1" s="31"/>
+      <c r="AH1" s="32"/>
     </row>
     <row r="2" spans="1:34" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="97" t="s">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="98"/>
-      <c r="I2" s="98"/>
-      <c r="J2" s="98"/>
-      <c r="K2" s="98"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="98"/>
-      <c r="N2" s="98"/>
-      <c r="O2" s="98"/>
-      <c r="P2" s="98"/>
-      <c r="Q2" s="98"/>
-      <c r="R2" s="98"/>
-      <c r="S2" s="98"/>
-      <c r="T2" s="98"/>
-      <c r="U2" s="98"/>
-      <c r="V2" s="98"/>
-      <c r="W2" s="98"/>
-      <c r="X2" s="98"/>
-      <c r="Y2" s="98"/>
-      <c r="Z2" s="98"/>
-      <c r="AA2" s="98"/>
-      <c r="AB2" s="98"/>
-      <c r="AC2" s="98"/>
-      <c r="AD2" s="98"/>
-      <c r="AE2" s="98"/>
-      <c r="AF2" s="98"/>
-      <c r="AG2" s="98"/>
-      <c r="AH2" s="99"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="35"/>
     </row>
     <row r="3" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="100" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="101"/>
-      <c r="L3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="N3" s="101"/>
-      <c r="O3" s="101"/>
-      <c r="P3" s="101"/>
-      <c r="Q3" s="101"/>
-      <c r="R3" s="101"/>
-      <c r="S3" s="101"/>
-      <c r="T3" s="101"/>
-      <c r="U3" s="101"/>
-      <c r="V3" s="101"/>
-      <c r="W3" s="101"/>
-      <c r="X3" s="101"/>
-      <c r="Y3" s="101"/>
-      <c r="Z3" s="101"/>
-      <c r="AA3" s="101"/>
-      <c r="AB3" s="101"/>
-      <c r="AC3" s="101"/>
-      <c r="AD3" s="101"/>
-      <c r="AE3" s="101"/>
-      <c r="AF3" s="101"/>
-      <c r="AG3" s="101"/>
-      <c r="AH3" s="102"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="38"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="103" t="s">
+      <c r="A4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="105"/>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="106" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="105"/>
-      <c r="O4" s="105"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="107"/>
-      <c r="R4" s="107"/>
-      <c r="S4" s="107"/>
-      <c r="T4" s="107"/>
-      <c r="U4" s="107"/>
-      <c r="V4" s="107"/>
-      <c r="W4" s="107"/>
-      <c r="X4" s="107"/>
-      <c r="Y4" s="108" t="s">
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="110"/>
-      <c r="AC4" s="110"/>
-      <c r="AD4" s="110"/>
-      <c r="AE4" s="110"/>
-      <c r="AF4" s="110"/>
-      <c r="AG4" s="110"/>
-      <c r="AH4" s="111"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="45"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AG4" s="46"/>
+      <c r="AH4" s="47"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="81" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="21"/>
-      <c r="AC5" s="21"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="21"/>
-      <c r="AH5" s="22"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="23"/>
+      <c r="W5" s="23"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="23"/>
+      <c r="AH5" s="49"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="81" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="77" t="s">
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="78"/>
-      <c r="V6" s="78"/>
-      <c r="W6" s="78"/>
-      <c r="X6" s="78"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
-      <c r="AB6" s="21"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="21"/>
-      <c r="AH6" s="22"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="23"/>
+      <c r="AH6" s="49"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="81" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="82" t="s">
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="P7" s="82"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="82"/>
-      <c r="S7" s="82"/>
-      <c r="T7" s="82"/>
-      <c r="U7" s="82"/>
-      <c r="V7" s="82"/>
-      <c r="W7" s="82"/>
-      <c r="X7" s="82"/>
-      <c r="Y7" s="82"/>
-      <c r="Z7" s="82"/>
-      <c r="AA7" s="82"/>
-      <c r="AB7" s="82"/>
-      <c r="AC7" s="82"/>
-      <c r="AD7" s="82"/>
-      <c r="AE7" s="82"/>
-      <c r="AF7" s="82"/>
-      <c r="AG7" s="82"/>
-      <c r="AH7" s="83"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="51"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="81" t="s">
+      <c r="H8" s="52"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="86"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="77" t="s">
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="U8" s="78"/>
-      <c r="V8" s="78"/>
-      <c r="W8" s="78"/>
-      <c r="X8" s="78"/>
-      <c r="Y8" s="78"/>
-      <c r="Z8" s="78"/>
-      <c r="AA8" s="78"/>
-      <c r="AB8" s="78"/>
-      <c r="AC8" s="78"/>
-      <c r="AD8" s="78"/>
-      <c r="AE8" s="78"/>
-      <c r="AF8" s="78"/>
-      <c r="AG8" s="78"/>
-      <c r="AH8" s="87"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
+      <c r="AB8" s="21"/>
+      <c r="AC8" s="21"/>
+      <c r="AD8" s="21"/>
+      <c r="AE8" s="21"/>
+      <c r="AF8" s="21"/>
+      <c r="AG8" s="21"/>
+      <c r="AH8" s="55"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="75" t="s">
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58"/>
+      <c r="J9" s="58"/>
+      <c r="K9" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="74" t="s">
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="U9" s="74"/>
-      <c r="V9" s="74"/>
-      <c r="W9" s="74"/>
-      <c r="X9" s="74"/>
-      <c r="Y9" s="74"/>
-      <c r="Z9" s="74"/>
-      <c r="AA9" s="74"/>
-      <c r="AB9" s="74"/>
-      <c r="AC9" s="74"/>
-      <c r="AD9" s="74"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="74"/>
-      <c r="AG9" s="74"/>
-      <c r="AH9" s="76"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="58"/>
+      <c r="Z9" s="58"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="58"/>
+      <c r="AC9" s="58"/>
+      <c r="AD9" s="58"/>
+      <c r="AE9" s="58"/>
+      <c r="AF9" s="58"/>
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="60"/>
     </row>
     <row r="10" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -2487,422 +2487,422 @@
       <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="47" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="47"/>
-      <c r="L11" s="16" t="s">
+      <c r="K11" s="63"/>
+      <c r="L11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="47" t="s">
+      <c r="M11" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47" t="s">
+      <c r="N11" s="63"/>
+      <c r="O11" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="31" t="s">
+      <c r="P11" s="64"/>
+      <c r="Q11" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="R11" s="32"/>
-      <c r="S11" s="32"/>
-      <c r="T11" s="32"/>
-      <c r="U11" s="32"/>
-      <c r="V11" s="32"/>
-      <c r="W11" s="32"/>
-      <c r="X11" s="32"/>
-      <c r="Y11" s="32"/>
-      <c r="Z11" s="32"/>
-      <c r="AA11" s="32"/>
-      <c r="AB11" s="47" t="s">
+      <c r="R11" s="62"/>
+      <c r="S11" s="62"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="62"/>
+      <c r="V11" s="62"/>
+      <c r="W11" s="62"/>
+      <c r="X11" s="62"/>
+      <c r="Y11" s="62"/>
+      <c r="Z11" s="62"/>
+      <c r="AA11" s="62"/>
+      <c r="AB11" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="16" t="s">
+      <c r="AC11" s="63"/>
+      <c r="AD11" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="AE11" s="47" t="s">
+      <c r="AE11" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="AF11" s="47"/>
-      <c r="AG11" s="47" t="s">
+      <c r="AF11" s="63"/>
+      <c r="AG11" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="AH11" s="48"/>
+      <c r="AH11" s="64"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="56" t="s">
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="56"/>
+      <c r="K12" s="66"/>
       <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="58"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="68"/>
       <c r="Q12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="55" t="s">
+      <c r="R12" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="55"/>
-      <c r="X12" s="55"/>
-      <c r="Y12" s="55"/>
-      <c r="Z12" s="55"/>
-      <c r="AA12" s="55"/>
-      <c r="AB12" s="56" t="s">
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="65"/>
+      <c r="W12" s="65"/>
+      <c r="X12" s="65"/>
+      <c r="Y12" s="65"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="65"/>
+      <c r="AB12" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="AC12" s="56"/>
+      <c r="AC12" s="66"/>
       <c r="AD12" s="4">
         <v>15</v>
       </c>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="70"/>
-      <c r="AH12" s="71"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="70"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="43" t="s">
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="43"/>
+      <c r="K13" s="72"/>
       <c r="L13" s="6">
         <v>5</v>
       </c>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="41"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="74"/>
       <c r="Q13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="65" t="s">
+      <c r="R13" s="75" t="s">
         <v>37</v>
       </c>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
-      <c r="AB13" s="66" t="s">
+      <c r="S13" s="75"/>
+      <c r="T13" s="75"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="75"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="75"/>
+      <c r="Y13" s="75"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="75"/>
+      <c r="AB13" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="AC13" s="66"/>
+      <c r="AC13" s="76"/>
       <c r="AD13" s="8">
         <v>15</v>
       </c>
-      <c r="AE13" s="45"/>
-      <c r="AF13" s="45"/>
-      <c r="AG13" s="45"/>
-      <c r="AH13" s="46"/>
+      <c r="AE13" s="77"/>
+      <c r="AF13" s="77"/>
+      <c r="AG13" s="77"/>
+      <c r="AH13" s="78"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="71" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="43" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="43"/>
+      <c r="K14" s="72"/>
       <c r="L14" s="6">
         <v>5</v>
       </c>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="59" t="s">
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="R14" s="60"/>
-      <c r="S14" s="60"/>
-      <c r="T14" s="60"/>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="61" t="s">
+      <c r="R14" s="82"/>
+      <c r="S14" s="82"/>
+      <c r="T14" s="82"/>
+      <c r="U14" s="82"/>
+      <c r="V14" s="82"/>
+      <c r="W14" s="82"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="82"/>
+      <c r="Z14" s="82"/>
+      <c r="AA14" s="82"/>
+      <c r="AB14" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AC14" s="61"/>
-      <c r="AD14" s="17" t="s">
+      <c r="AC14" s="79"/>
+      <c r="AD14" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="61"/>
-      <c r="AG14" s="61"/>
-      <c r="AH14" s="62"/>
+      <c r="AE14" s="79"/>
+      <c r="AF14" s="79"/>
+      <c r="AG14" s="79"/>
+      <c r="AH14" s="80"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43" t="s">
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="43"/>
+      <c r="K15" s="72"/>
       <c r="L15" s="6">
         <v>5</v>
       </c>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="41"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="74"/>
       <c r="Q15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R15" s="55" t="s">
+      <c r="R15" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="55"/>
-      <c r="X15" s="55"/>
-      <c r="Y15" s="55"/>
-      <c r="Z15" s="55"/>
-      <c r="AA15" s="55"/>
-      <c r="AB15" s="56" t="s">
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
+      <c r="AB15" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="AC15" s="56"/>
+      <c r="AC15" s="66"/>
       <c r="AD15" s="4">
         <v>20</v>
       </c>
-      <c r="AE15" s="57"/>
-      <c r="AF15" s="57"/>
-      <c r="AG15" s="57"/>
-      <c r="AH15" s="58"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="67"/>
+      <c r="AG15" s="67"/>
+      <c r="AH15" s="68"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43" t="s">
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="K16" s="43"/>
+      <c r="K16" s="72"/>
       <c r="L16" s="6">
         <v>5</v>
       </c>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="41"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="74"/>
       <c r="Q16" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="R16" s="42" t="s">
+      <c r="R16" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="43" t="s">
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AC16" s="43"/>
+      <c r="AC16" s="72"/>
       <c r="AD16" s="6">
         <v>10</v>
       </c>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="41"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="74"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="71" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="43" t="s">
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="43"/>
+      <c r="K17" s="72"/>
       <c r="L17" s="6">
         <v>5</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="41"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="74"/>
       <c r="Q17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="42" t="s">
+      <c r="R17" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="43" t="s">
+      <c r="S17" s="71"/>
+      <c r="T17" s="71"/>
+      <c r="U17" s="71"/>
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="71"/>
+      <c r="Z17" s="71"/>
+      <c r="AA17" s="71"/>
+      <c r="AB17" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AC17" s="43"/>
+      <c r="AC17" s="72"/>
       <c r="AD17" s="6">
         <v>25</v>
       </c>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="41"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="74"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="K18" s="43"/>
+      <c r="K18" s="72"/>
       <c r="L18" s="6">
         <v>5</v>
       </c>
-      <c r="M18" s="40"/>
-      <c r="N18" s="40"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="41"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="74"/>
       <c r="Q18" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="R18" s="42" t="s">
+      <c r="R18" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="43" t="s">
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AC18" s="43"/>
+      <c r="AC18" s="72"/>
       <c r="AD18" s="6">
         <v>15</v>
       </c>
-      <c r="AE18" s="40"/>
-      <c r="AF18" s="40"/>
-      <c r="AG18" s="40"/>
-      <c r="AH18" s="41"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="74"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
@@ -2912,1629 +2912,1891 @@
         <v>59</v>
       </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
       <c r="L19" s="8">
         <v>5</v>
       </c>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="46"/>
+      <c r="M19" s="77"/>
+      <c r="N19" s="77"/>
+      <c r="O19" s="77"/>
+      <c r="P19" s="78"/>
       <c r="Q19" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R19" s="42" t="s">
+      <c r="R19" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="43" t="s">
+      <c r="S19" s="71"/>
+      <c r="T19" s="71"/>
+      <c r="U19" s="71"/>
+      <c r="V19" s="71"/>
+      <c r="W19" s="71"/>
+      <c r="X19" s="71"/>
+      <c r="Y19" s="71"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="71"/>
+      <c r="AB19" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AC19" s="43"/>
+      <c r="AC19" s="72"/>
       <c r="AD19" s="6">
         <v>25</v>
       </c>
-      <c r="AE19" s="40"/>
-      <c r="AF19" s="40"/>
-      <c r="AG19" s="40"/>
-      <c r="AH19" s="41"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="74"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61" t="s">
+      <c r="B20" s="82"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="82"/>
+      <c r="J20" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="K20" s="61"/>
-      <c r="L20" s="17" t="s">
+      <c r="K20" s="79"/>
+      <c r="L20" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="61" t="s">
+      <c r="M20" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61" t="s">
+      <c r="N20" s="79"/>
+      <c r="O20" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="P20" s="62"/>
+      <c r="P20" s="80"/>
       <c r="Q20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="R20" s="42" t="s">
+      <c r="R20" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="S20" s="42"/>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="42"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="42"/>
-      <c r="AB20" s="43" t="s">
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AC20" s="43"/>
+      <c r="AC20" s="72"/>
       <c r="AD20" s="6">
         <v>25</v>
       </c>
-      <c r="AE20" s="40"/>
-      <c r="AF20" s="40"/>
-      <c r="AG20" s="40"/>
-      <c r="AH20" s="41"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="74"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="67" t="s">
+      <c r="B21" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="56" t="s">
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="85"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
+      <c r="J21" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="56"/>
+      <c r="K21" s="66"/>
       <c r="L21" s="4">
         <v>5</v>
       </c>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="58"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="67"/>
+      <c r="P21" s="68"/>
       <c r="Q21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="65" t="s">
+      <c r="R21" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="65"/>
-      <c r="X21" s="65"/>
-      <c r="Y21" s="65"/>
-      <c r="Z21" s="65"/>
-      <c r="AA21" s="65"/>
-      <c r="AB21" s="66" t="s">
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="AC21" s="66"/>
+      <c r="AC21" s="76"/>
       <c r="AD21" s="8">
         <v>15</v>
       </c>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="45"/>
-      <c r="AH21" s="46"/>
+      <c r="AE21" s="77"/>
+      <c r="AF21" s="77"/>
+      <c r="AG21" s="77"/>
+      <c r="AH21" s="78"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="43" t="s">
+      <c r="C22" s="86"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="86"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="43"/>
+      <c r="K22" s="72"/>
       <c r="L22" s="6">
         <v>5</v>
       </c>
-      <c r="M22" s="40"/>
-      <c r="N22" s="40"/>
-      <c r="O22" s="40"/>
-      <c r="P22" s="41"/>
-      <c r="Q22" s="59" t="s">
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="R22" s="60"/>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="61" t="s">
+      <c r="R22" s="82"/>
+      <c r="S22" s="82"/>
+      <c r="T22" s="82"/>
+      <c r="U22" s="82"/>
+      <c r="V22" s="82"/>
+      <c r="W22" s="82"/>
+      <c r="X22" s="82"/>
+      <c r="Y22" s="82"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="82"/>
+      <c r="AB22" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AC22" s="61"/>
-      <c r="AD22" s="17" t="s">
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AE22" s="61" t="s">
+      <c r="AE22" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="AF22" s="61"/>
-      <c r="AG22" s="61" t="s">
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="AH22" s="62"/>
+      <c r="AH22" s="80"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43" t="s">
+      <c r="C23" s="71"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="71"/>
+      <c r="H23" s="71"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="43"/>
+      <c r="K23" s="72"/>
       <c r="L23" s="6">
         <v>5</v>
       </c>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="41"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="74"/>
       <c r="Q23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="R23" s="55" t="s">
+      <c r="R23" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="55"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="55"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="56" t="s">
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="AC23" s="56"/>
+      <c r="AC23" s="66"/>
       <c r="AD23" s="4">
         <v>5</v>
       </c>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="57"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="58"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="68"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="43" t="s">
+      <c r="C24" s="71"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="43"/>
+      <c r="K24" s="72"/>
       <c r="L24" s="6">
         <v>5</v>
       </c>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="41"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="74"/>
       <c r="Q24" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="R24" s="42" t="s">
+      <c r="R24" s="71" t="s">
         <v>80</v>
       </c>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="42"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="43" t="s">
+      <c r="S24" s="71"/>
+      <c r="T24" s="71"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
+      <c r="Y24" s="71"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="71"/>
+      <c r="AB24" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="AC24" s="43"/>
+      <c r="AC24" s="72"/>
       <c r="AD24" s="6">
         <v>5</v>
       </c>
-      <c r="AE24" s="40"/>
-      <c r="AF24" s="40"/>
-      <c r="AG24" s="40"/>
-      <c r="AH24" s="41"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="74"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="42" t="s">
+      <c r="B25" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="43" t="s">
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="71"/>
+      <c r="G25" s="71"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="43"/>
+      <c r="K25" s="72"/>
       <c r="L25" s="6">
         <v>5</v>
       </c>
-      <c r="M25" s="40"/>
-      <c r="N25" s="40"/>
-      <c r="O25" s="40"/>
-      <c r="P25" s="41"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="74"/>
       <c r="Q25" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R25" s="42" t="s">
+      <c r="R25" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="S25" s="42"/>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42"/>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="42"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="42"/>
-      <c r="AB25" s="43" t="s">
+      <c r="S25" s="71"/>
+      <c r="T25" s="71"/>
+      <c r="U25" s="71"/>
+      <c r="V25" s="71"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="71"/>
+      <c r="Y25" s="71"/>
+      <c r="Z25" s="71"/>
+      <c r="AA25" s="71"/>
+      <c r="AB25" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="AC25" s="43"/>
+      <c r="AC25" s="72"/>
       <c r="AD25" s="6">
         <v>5</v>
       </c>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="41"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="74"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="43" t="s">
+      <c r="C26" s="71"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
+      <c r="F26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="71"/>
+      <c r="J26" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="43"/>
+      <c r="K26" s="72"/>
       <c r="L26" s="6">
         <v>5</v>
       </c>
-      <c r="M26" s="40"/>
-      <c r="N26" s="40"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="41"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="73"/>
+      <c r="P26" s="74"/>
       <c r="Q26" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="R26" s="42" t="s">
+      <c r="R26" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="42"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="42"/>
-      <c r="AB26" s="43" t="s">
+      <c r="S26" s="71"/>
+      <c r="T26" s="71"/>
+      <c r="U26" s="71"/>
+      <c r="V26" s="71"/>
+      <c r="W26" s="71"/>
+      <c r="X26" s="71"/>
+      <c r="Y26" s="71"/>
+      <c r="Z26" s="71"/>
+      <c r="AA26" s="71"/>
+      <c r="AB26" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="AC26" s="43"/>
+      <c r="AC26" s="72"/>
       <c r="AD26" s="6">
         <v>5</v>
       </c>
-      <c r="AE26" s="40"/>
-      <c r="AF26" s="40"/>
-      <c r="AG26" s="40"/>
-      <c r="AH26" s="41"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+      <c r="AG26" s="73"/>
+      <c r="AH26" s="74"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B27" s="42" t="s">
+      <c r="B27" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="43" t="s">
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="71"/>
+      <c r="J27" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="43"/>
+      <c r="K27" s="72"/>
       <c r="L27" s="6">
         <v>5</v>
       </c>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="41"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="73"/>
+      <c r="P27" s="74"/>
       <c r="Q27" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="R27" s="42" t="s">
+      <c r="R27" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42"/>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="42"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="43" t="s">
+      <c r="S27" s="71"/>
+      <c r="T27" s="71"/>
+      <c r="U27" s="71"/>
+      <c r="V27" s="71"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="71"/>
+      <c r="Y27" s="71"/>
+      <c r="Z27" s="71"/>
+      <c r="AA27" s="71"/>
+      <c r="AB27" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="AC27" s="43"/>
+      <c r="AC27" s="72"/>
       <c r="AD27" s="6">
         <v>10</v>
       </c>
-      <c r="AE27" s="40"/>
-      <c r="AF27" s="40"/>
-      <c r="AG27" s="40"/>
-      <c r="AH27" s="41"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="74"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="65" t="s">
+      <c r="B28" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
-      <c r="I28" s="65"/>
-      <c r="J28" s="66" t="s">
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="75"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
+      <c r="J28" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="66"/>
+      <c r="K28" s="76"/>
       <c r="L28" s="8">
         <v>5</v>
       </c>
-      <c r="M28" s="45"/>
-      <c r="N28" s="45"/>
-      <c r="O28" s="45"/>
-      <c r="P28" s="46"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="78"/>
       <c r="Q28" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R28" s="42" t="s">
+      <c r="R28" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="42"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="43" t="s">
+      <c r="S28" s="71"/>
+      <c r="T28" s="71"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="71"/>
+      <c r="Z28" s="71"/>
+      <c r="AA28" s="71"/>
+      <c r="AB28" s="72" t="s">
         <v>76</v>
       </c>
-      <c r="AC28" s="43"/>
+      <c r="AC28" s="72"/>
       <c r="AD28" s="6">
         <v>5</v>
       </c>
-      <c r="AE28" s="40"/>
-      <c r="AF28" s="40"/>
-      <c r="AG28" s="40"/>
-      <c r="AH28" s="41"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="73"/>
+      <c r="AH28" s="74"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="81" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="61" t="s">
+      <c r="B29" s="82"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="K29" s="61"/>
-      <c r="L29" s="17" t="s">
+      <c r="K29" s="79"/>
+      <c r="L29" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M29" s="61" t="s">
+      <c r="M29" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="61"/>
-      <c r="O29" s="61" t="s">
+      <c r="N29" s="79"/>
+      <c r="O29" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="P29" s="62"/>
+      <c r="P29" s="80"/>
       <c r="Q29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="R29" s="42" t="s">
+      <c r="R29" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="42"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="42"/>
-      <c r="AB29" s="43" t="s">
+      <c r="S29" s="71"/>
+      <c r="T29" s="71"/>
+      <c r="U29" s="71"/>
+      <c r="V29" s="71"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="71"/>
+      <c r="Y29" s="71"/>
+      <c r="Z29" s="71"/>
+      <c r="AA29" s="71"/>
+      <c r="AB29" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="AC29" s="43"/>
+      <c r="AC29" s="72"/>
       <c r="AD29" s="6">
         <v>10</v>
       </c>
-      <c r="AE29" s="40"/>
-      <c r="AF29" s="40"/>
-      <c r="AG29" s="40"/>
-      <c r="AH29" s="41"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="74"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="67" t="s">
+      <c r="B30" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="67"/>
-      <c r="J30" s="56" t="s">
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="85"/>
+      <c r="G30" s="85"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
+      <c r="J30" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="K30" s="56"/>
+      <c r="K30" s="66"/>
       <c r="L30" s="4">
         <v>10</v>
       </c>
-      <c r="M30" s="57"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="58"/>
+      <c r="M30" s="67"/>
+      <c r="N30" s="67"/>
+      <c r="O30" s="67"/>
+      <c r="P30" s="68"/>
       <c r="Q30" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="R30" s="42" t="s">
+      <c r="R30" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="42"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="42"/>
-      <c r="AB30" s="43" t="s">
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="AC30" s="43"/>
+      <c r="AC30" s="72"/>
       <c r="AD30" s="6">
         <v>10</v>
       </c>
-      <c r="AE30" s="40"/>
-      <c r="AF30" s="40"/>
-      <c r="AG30" s="40"/>
-      <c r="AH30" s="41"/>
+      <c r="AE30" s="73"/>
+      <c r="AF30" s="73"/>
+      <c r="AG30" s="73"/>
+      <c r="AH30" s="74"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="75" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="66" t="s">
+      <c r="C31" s="75"/>
+      <c r="D31" s="75"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="76" t="s">
         <v>76</v>
       </c>
-      <c r="K31" s="66"/>
+      <c r="K31" s="76"/>
       <c r="L31" s="8">
         <v>10</v>
       </c>
-      <c r="M31" s="45"/>
-      <c r="N31" s="45"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="46"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="78"/>
       <c r="Q31" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="R31" s="44" t="s">
+      <c r="R31" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="S31" s="44"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="43" t="s">
+      <c r="S31" s="86"/>
+      <c r="T31" s="86"/>
+      <c r="U31" s="86"/>
+      <c r="V31" s="86"/>
+      <c r="W31" s="86"/>
+      <c r="X31" s="86"/>
+      <c r="Y31" s="86"/>
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="86"/>
+      <c r="AB31" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="AC31" s="43"/>
+      <c r="AC31" s="72"/>
       <c r="AD31" s="6">
         <v>10</v>
       </c>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="40"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="41"/>
+      <c r="AE31" s="73"/>
+      <c r="AF31" s="73"/>
+      <c r="AG31" s="73"/>
+      <c r="AH31" s="74"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="81" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="61" t="s">
+      <c r="B32" s="82"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="K32" s="61"/>
-      <c r="L32" s="17" t="s">
+      <c r="K32" s="79"/>
+      <c r="L32" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="M32" s="61" t="s">
+      <c r="M32" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="N32" s="61"/>
-      <c r="O32" s="61" t="s">
+      <c r="N32" s="79"/>
+      <c r="O32" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="P32" s="62"/>
+      <c r="P32" s="80"/>
       <c r="Q32" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="R32" s="63" t="s">
+      <c r="R32" s="89" t="s">
         <v>112</v>
       </c>
-      <c r="S32" s="63"/>
-      <c r="T32" s="63"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="63"/>
-      <c r="W32" s="63"/>
-      <c r="X32" s="63"/>
-      <c r="Y32" s="63"/>
-      <c r="Z32" s="63"/>
-      <c r="AA32" s="63"/>
-      <c r="AB32" s="64" t="s">
+      <c r="S32" s="89"/>
+      <c r="T32" s="89"/>
+      <c r="U32" s="89"/>
+      <c r="V32" s="89"/>
+      <c r="W32" s="89"/>
+      <c r="X32" s="89"/>
+      <c r="Y32" s="89"/>
+      <c r="Z32" s="89"/>
+      <c r="AA32" s="89"/>
+      <c r="AB32" s="90" t="s">
         <v>113</v>
       </c>
-      <c r="AC32" s="64"/>
+      <c r="AC32" s="90"/>
       <c r="AD32" s="12">
         <v>5</v>
       </c>
-      <c r="AE32" s="53"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="54"/>
+      <c r="AE32" s="87"/>
+      <c r="AF32" s="87"/>
+      <c r="AG32" s="87"/>
+      <c r="AH32" s="88"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="65" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="56" t="s">
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="66" t="s">
         <v>116</v>
       </c>
-      <c r="K33" s="56"/>
+      <c r="K33" s="66"/>
       <c r="L33" s="4">
         <v>10</v>
       </c>
-      <c r="M33" s="57"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="58"/>
-      <c r="Q33" s="31" t="s">
+      <c r="M33" s="67"/>
+      <c r="N33" s="67"/>
+      <c r="O33" s="67"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="61" t="s">
         <v>117</v>
       </c>
-      <c r="R33" s="32"/>
-      <c r="S33" s="32"/>
-      <c r="T33" s="32"/>
-      <c r="U33" s="32"/>
-      <c r="V33" s="32"/>
-      <c r="W33" s="32"/>
-      <c r="X33" s="32"/>
-      <c r="Y33" s="32"/>
-      <c r="Z33" s="32"/>
-      <c r="AA33" s="32"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="47"/>
-      <c r="AH33" s="48"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="14"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="64"/>
     </row>
     <row r="34" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="43" t="s">
+      <c r="C34" s="71"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
+      <c r="F34" s="71"/>
+      <c r="G34" s="71"/>
+      <c r="H34" s="71"/>
+      <c r="I34" s="71"/>
+      <c r="J34" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="K34" s="43"/>
+      <c r="K34" s="72"/>
       <c r="L34" s="6">
         <v>10</v>
       </c>
-      <c r="M34" s="40"/>
-      <c r="N34" s="40"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="33"/>
-      <c r="S34" s="33"/>
-      <c r="T34" s="33"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="14"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+      <c r="T34" s="92"/>
+      <c r="V34" s="114"/>
+      <c r="W34" s="114"/>
+      <c r="X34" s="114"/>
+      <c r="Y34" s="114"/>
+      <c r="Z34" s="114"/>
+      <c r="AA34" s="114"/>
+      <c r="AB34" s="114"/>
+      <c r="AC34" s="114"/>
+      <c r="AD34" s="114"/>
+      <c r="AE34" s="114"/>
+      <c r="AF34" s="114"/>
+      <c r="AG34" s="114"/>
+      <c r="AH34" s="115"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="42" t="s">
+      <c r="B35" s="71" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="43" t="s">
+      <c r="C35" s="71"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71"/>
+      <c r="I35" s="71"/>
+      <c r="J35" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="K35" s="43"/>
+      <c r="K35" s="72"/>
       <c r="L35" s="6">
         <v>15</v>
       </c>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="50" t="s">
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="R35" s="51"/>
-      <c r="S35" s="51"/>
-      <c r="T35" s="51"/>
-      <c r="U35" s="51"/>
-      <c r="V35" s="51"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="51"/>
-      <c r="AC35" s="51"/>
-      <c r="AD35" s="51"/>
-      <c r="AE35" s="51"/>
-      <c r="AF35" s="51"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="52"/>
+      <c r="R35" s="94"/>
+      <c r="S35" s="94"/>
+      <c r="T35" s="94"/>
+      <c r="U35" s="94"/>
+      <c r="V35" s="94"/>
+      <c r="W35" s="94"/>
+      <c r="X35" s="94"/>
+      <c r="Y35" s="94"/>
+      <c r="Z35" s="94"/>
+      <c r="AA35" s="94"/>
+      <c r="AB35" s="94"/>
+      <c r="AC35" s="94"/>
+      <c r="AD35" s="94"/>
+      <c r="AE35" s="94"/>
+      <c r="AF35" s="94"/>
+      <c r="AG35" s="94"/>
+      <c r="AH35" s="95"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="71" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="43" t="s">
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="K36" s="43"/>
+      <c r="K36" s="72"/>
       <c r="L36" s="6">
         <v>10</v>
       </c>
-      <c r="M36" s="40"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="31" t="s">
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="R36" s="32"/>
-      <c r="S36" s="32"/>
-      <c r="T36" s="32"/>
-      <c r="U36" s="32"/>
-      <c r="V36" s="32"/>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
-      <c r="Z36" s="32"/>
-      <c r="AA36" s="32"/>
-      <c r="AB36" s="47"/>
-      <c r="AC36" s="47"/>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="47"/>
-      <c r="AF36" s="47"/>
-      <c r="AG36" s="47"/>
-      <c r="AH36" s="48"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="62"/>
+      <c r="T36" s="62"/>
+      <c r="U36" s="62"/>
+      <c r="V36" s="62"/>
+      <c r="W36" s="62"/>
+      <c r="X36" s="62"/>
+      <c r="Y36" s="62"/>
+      <c r="Z36" s="62"/>
+      <c r="AA36" s="62"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="63"/>
+      <c r="AD36" s="14"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+      <c r="AG36" s="63"/>
+      <c r="AH36" s="64"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="71" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="42"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="43" t="s">
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="K37" s="43"/>
+      <c r="K37" s="72"/>
       <c r="L37" s="6">
         <v>5</v>
       </c>
-      <c r="M37" s="40"/>
-      <c r="N37" s="40"/>
-      <c r="O37" s="40"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="112"/>
-      <c r="R37" s="113"/>
-      <c r="S37" s="113"/>
-      <c r="T37" s="113"/>
-      <c r="U37" s="113"/>
-      <c r="V37" s="113"/>
-      <c r="W37" s="113"/>
-      <c r="X37" s="113"/>
-      <c r="Y37" s="113"/>
-      <c r="Z37" s="113"/>
-      <c r="AA37" s="113"/>
-      <c r="AB37" s="113"/>
-      <c r="AC37" s="113"/>
-      <c r="AD37" s="113"/>
-      <c r="AE37" s="113"/>
-      <c r="AF37" s="113"/>
-      <c r="AG37" s="113"/>
-      <c r="AH37" s="113"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="96"/>
+      <c r="R37" s="97"/>
+      <c r="S37" s="97"/>
+      <c r="T37" s="97"/>
+      <c r="U37" s="97"/>
+      <c r="V37" s="97"/>
+      <c r="W37" s="97"/>
+      <c r="X37" s="97"/>
+      <c r="Y37" s="97"/>
+      <c r="Z37" s="97"/>
+      <c r="AA37" s="97"/>
+      <c r="AB37" s="97"/>
+      <c r="AC37" s="97"/>
+      <c r="AD37" s="97"/>
+      <c r="AE37" s="97"/>
+      <c r="AF37" s="97"/>
+      <c r="AG37" s="97"/>
+      <c r="AH37" s="97"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="43" t="s">
+      <c r="C38" s="71"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="71"/>
+      <c r="H38" s="71"/>
+      <c r="I38" s="71"/>
+      <c r="J38" s="72" t="s">
         <v>116</v>
       </c>
-      <c r="K38" s="43"/>
+      <c r="K38" s="72"/>
       <c r="L38" s="6">
         <v>5</v>
       </c>
-      <c r="M38" s="40"/>
-      <c r="N38" s="40"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="112"/>
-      <c r="R38" s="113"/>
-      <c r="S38" s="113"/>
-      <c r="T38" s="113"/>
-      <c r="U38" s="113"/>
-      <c r="V38" s="113"/>
-      <c r="W38" s="113"/>
-      <c r="X38" s="113"/>
-      <c r="Y38" s="113"/>
-      <c r="Z38" s="113"/>
-      <c r="AA38" s="113"/>
-      <c r="AB38" s="113"/>
-      <c r="AC38" s="113"/>
-      <c r="AD38" s="113"/>
-      <c r="AE38" s="113"/>
-      <c r="AF38" s="113"/>
-      <c r="AG38" s="113"/>
-      <c r="AH38" s="113"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="96"/>
+      <c r="R38" s="97"/>
+      <c r="S38" s="97"/>
+      <c r="T38" s="97"/>
+      <c r="U38" s="97"/>
+      <c r="V38" s="97"/>
+      <c r="W38" s="97"/>
+      <c r="X38" s="97"/>
+      <c r="Y38" s="97"/>
+      <c r="Z38" s="97"/>
+      <c r="AA38" s="97"/>
+      <c r="AB38" s="97"/>
+      <c r="AC38" s="97"/>
+      <c r="AD38" s="97"/>
+      <c r="AE38" s="97"/>
+      <c r="AF38" s="97"/>
+      <c r="AG38" s="97"/>
+      <c r="AH38" s="97"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="71" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="43" t="s">
+      <c r="C39" s="71"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
+      <c r="F39" s="71"/>
+      <c r="G39" s="71"/>
+      <c r="H39" s="71"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="72" t="s">
         <v>132</v>
       </c>
-      <c r="K39" s="43"/>
+      <c r="K39" s="72"/>
       <c r="L39" s="6">
         <v>5</v>
       </c>
-      <c r="M39" s="40"/>
-      <c r="N39" s="40"/>
-      <c r="O39" s="40"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="112"/>
-      <c r="R39" s="113"/>
-      <c r="S39" s="113"/>
-      <c r="T39" s="113"/>
-      <c r="U39" s="113"/>
-      <c r="V39" s="113"/>
-      <c r="W39" s="113"/>
-      <c r="X39" s="113"/>
-      <c r="Y39" s="113"/>
-      <c r="Z39" s="113"/>
-      <c r="AA39" s="113"/>
-      <c r="AB39" s="113"/>
-      <c r="AC39" s="113"/>
-      <c r="AD39" s="113"/>
-      <c r="AE39" s="113"/>
-      <c r="AF39" s="113"/>
-      <c r="AG39" s="113"/>
-      <c r="AH39" s="113"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="96"/>
+      <c r="R39" s="97"/>
+      <c r="S39" s="97"/>
+      <c r="T39" s="97"/>
+      <c r="U39" s="97"/>
+      <c r="V39" s="97"/>
+      <c r="W39" s="97"/>
+      <c r="X39" s="97"/>
+      <c r="Y39" s="97"/>
+      <c r="Z39" s="97"/>
+      <c r="AA39" s="97"/>
+      <c r="AB39" s="97"/>
+      <c r="AC39" s="97"/>
+      <c r="AD39" s="97"/>
+      <c r="AE39" s="97"/>
+      <c r="AF39" s="97"/>
+      <c r="AG39" s="97"/>
+      <c r="AH39" s="97"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="86" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="44"/>
-      <c r="J40" s="43" t="s">
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="K40" s="43"/>
+      <c r="K40" s="72"/>
       <c r="L40" s="12">
         <v>5</v>
       </c>
-      <c r="M40" s="45"/>
-      <c r="N40" s="45"/>
-      <c r="O40" s="45"/>
-      <c r="P40" s="46"/>
-      <c r="Q40" s="114"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="115"/>
-      <c r="T40" s="115"/>
-      <c r="U40" s="115"/>
-      <c r="V40" s="115"/>
-      <c r="W40" s="115"/>
-      <c r="X40" s="115"/>
-      <c r="Y40" s="115"/>
-      <c r="Z40" s="115"/>
-      <c r="AA40" s="115"/>
-      <c r="AB40" s="115"/>
-      <c r="AC40" s="115"/>
-      <c r="AD40" s="115"/>
-      <c r="AE40" s="115"/>
-      <c r="AF40" s="115"/>
-      <c r="AG40" s="115"/>
-      <c r="AH40" s="115"/>
+      <c r="M40" s="77"/>
+      <c r="N40" s="77"/>
+      <c r="O40" s="77"/>
+      <c r="P40" s="78"/>
+      <c r="Q40" s="98"/>
+      <c r="R40" s="99"/>
+      <c r="S40" s="99"/>
+      <c r="T40" s="99"/>
+      <c r="U40" s="99"/>
+      <c r="V40" s="99"/>
+      <c r="W40" s="99"/>
+      <c r="X40" s="99"/>
+      <c r="Y40" s="99"/>
+      <c r="Z40" s="99"/>
+      <c r="AA40" s="99"/>
+      <c r="AB40" s="99"/>
+      <c r="AC40" s="99"/>
+      <c r="AD40" s="99"/>
+      <c r="AE40" s="99"/>
+      <c r="AF40" s="99"/>
+      <c r="AG40" s="99"/>
+      <c r="AH40" s="99"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="Q41" s="32"/>
-      <c r="R41" s="32"/>
-      <c r="S41" s="32"/>
-      <c r="T41" s="32"/>
-      <c r="U41" s="32"/>
-      <c r="V41" s="32"/>
-      <c r="W41" s="32"/>
-      <c r="X41" s="32"/>
-      <c r="Y41" s="32"/>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="32"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62"/>
+      <c r="N41" s="62"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="62"/>
+      <c r="V41" s="62"/>
+      <c r="W41" s="62"/>
+      <c r="X41" s="62"/>
+      <c r="Y41" s="62"/>
+      <c r="Z41" s="62"/>
+      <c r="AA41" s="62"/>
+      <c r="AB41" s="62"/>
+      <c r="AC41" s="62"/>
+      <c r="AD41" s="62"/>
+      <c r="AE41" s="62"/>
+      <c r="AF41" s="62"/>
+      <c r="AG41" s="62"/>
+      <c r="AH41" s="62"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A42" s="113"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
-      <c r="D42" s="113"/>
-      <c r="E42" s="113"/>
-      <c r="F42" s="113"/>
-      <c r="G42" s="113"/>
-      <c r="H42" s="113"/>
-      <c r="I42" s="113"/>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113"/>
-      <c r="L42" s="113"/>
-      <c r="M42" s="113"/>
-      <c r="N42" s="113"/>
-      <c r="O42" s="113"/>
-      <c r="P42" s="113"/>
-      <c r="Q42" s="113"/>
-      <c r="R42" s="113"/>
-      <c r="S42" s="113"/>
-      <c r="T42" s="113"/>
-      <c r="U42" s="113"/>
-      <c r="V42" s="113"/>
-      <c r="W42" s="113"/>
-      <c r="X42" s="113"/>
-      <c r="Y42" s="113"/>
-      <c r="Z42" s="113"/>
-      <c r="AA42" s="113"/>
-      <c r="AB42" s="113"/>
-      <c r="AC42" s="113"/>
-      <c r="AD42" s="113"/>
-      <c r="AE42" s="113"/>
-      <c r="AF42" s="113"/>
-      <c r="AG42" s="113"/>
-      <c r="AH42" s="113"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="97"/>
+      <c r="D42" s="97"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="97"/>
+      <c r="G42" s="97"/>
+      <c r="H42" s="97"/>
+      <c r="I42" s="97"/>
+      <c r="J42" s="97"/>
+      <c r="K42" s="97"/>
+      <c r="L42" s="97"/>
+      <c r="M42" s="97"/>
+      <c r="N42" s="97"/>
+      <c r="O42" s="97"/>
+      <c r="P42" s="97"/>
+      <c r="Q42" s="97"/>
+      <c r="R42" s="97"/>
+      <c r="S42" s="97"/>
+      <c r="T42" s="97"/>
+      <c r="U42" s="97"/>
+      <c r="V42" s="97"/>
+      <c r="W42" s="97"/>
+      <c r="X42" s="97"/>
+      <c r="Y42" s="97"/>
+      <c r="Z42" s="97"/>
+      <c r="AA42" s="97"/>
+      <c r="AB42" s="97"/>
+      <c r="AC42" s="97"/>
+      <c r="AD42" s="97"/>
+      <c r="AE42" s="97"/>
+      <c r="AF42" s="97"/>
+      <c r="AG42" s="97"/>
+      <c r="AH42" s="97"/>
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A43" s="113"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="113"/>
-      <c r="J43" s="113"/>
-      <c r="K43" s="113"/>
-      <c r="L43" s="113"/>
-      <c r="M43" s="113"/>
-      <c r="N43" s="113"/>
-      <c r="O43" s="113"/>
-      <c r="P43" s="113"/>
-      <c r="Q43" s="113"/>
-      <c r="R43" s="113"/>
-      <c r="S43" s="113"/>
-      <c r="T43" s="113"/>
-      <c r="U43" s="113"/>
-      <c r="V43" s="113"/>
-      <c r="W43" s="113"/>
-      <c r="X43" s="113"/>
-      <c r="Y43" s="113"/>
-      <c r="Z43" s="113"/>
-      <c r="AA43" s="113"/>
-      <c r="AB43" s="113"/>
-      <c r="AC43" s="113"/>
-      <c r="AD43" s="113"/>
-      <c r="AE43" s="113"/>
-      <c r="AF43" s="113"/>
-      <c r="AG43" s="113"/>
-      <c r="AH43" s="113"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="97"/>
+      <c r="D43" s="97"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="97"/>
+      <c r="G43" s="97"/>
+      <c r="H43" s="97"/>
+      <c r="I43" s="97"/>
+      <c r="J43" s="97"/>
+      <c r="K43" s="97"/>
+      <c r="L43" s="97"/>
+      <c r="M43" s="97"/>
+      <c r="N43" s="97"/>
+      <c r="O43" s="97"/>
+      <c r="P43" s="97"/>
+      <c r="Q43" s="97"/>
+      <c r="R43" s="97"/>
+      <c r="S43" s="97"/>
+      <c r="T43" s="97"/>
+      <c r="U43" s="97"/>
+      <c r="V43" s="97"/>
+      <c r="W43" s="97"/>
+      <c r="X43" s="97"/>
+      <c r="Y43" s="97"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="97"/>
+      <c r="AB43" s="97"/>
+      <c r="AC43" s="97"/>
+      <c r="AD43" s="97"/>
+      <c r="AE43" s="97"/>
+      <c r="AF43" s="97"/>
+      <c r="AG43" s="97"/>
+      <c r="AH43" s="97"/>
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A44" s="113"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="113"/>
-      <c r="J44" s="113"/>
-      <c r="K44" s="113"/>
-      <c r="L44" s="113"/>
-      <c r="M44" s="113"/>
-      <c r="N44" s="113"/>
-      <c r="O44" s="113"/>
-      <c r="P44" s="113"/>
-      <c r="Q44" s="113"/>
-      <c r="R44" s="113"/>
-      <c r="S44" s="113"/>
-      <c r="T44" s="113"/>
-      <c r="U44" s="113"/>
-      <c r="V44" s="113"/>
-      <c r="W44" s="113"/>
-      <c r="X44" s="113"/>
-      <c r="Y44" s="113"/>
-      <c r="Z44" s="113"/>
-      <c r="AA44" s="113"/>
-      <c r="AB44" s="113"/>
-      <c r="AC44" s="113"/>
-      <c r="AD44" s="113"/>
-      <c r="AE44" s="113"/>
-      <c r="AF44" s="113"/>
-      <c r="AG44" s="113"/>
-      <c r="AH44" s="113"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="97"/>
+      <c r="D44" s="97"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="97"/>
+      <c r="G44" s="97"/>
+      <c r="H44" s="97"/>
+      <c r="I44" s="97"/>
+      <c r="J44" s="97"/>
+      <c r="K44" s="97"/>
+      <c r="L44" s="97"/>
+      <c r="M44" s="97"/>
+      <c r="N44" s="97"/>
+      <c r="O44" s="97"/>
+      <c r="P44" s="97"/>
+      <c r="Q44" s="97"/>
+      <c r="R44" s="97"/>
+      <c r="S44" s="97"/>
+      <c r="T44" s="97"/>
+      <c r="U44" s="97"/>
+      <c r="V44" s="97"/>
+      <c r="W44" s="97"/>
+      <c r="X44" s="97"/>
+      <c r="Y44" s="97"/>
+      <c r="Z44" s="97"/>
+      <c r="AA44" s="97"/>
+      <c r="AB44" s="97"/>
+      <c r="AC44" s="97"/>
+      <c r="AD44" s="97"/>
+      <c r="AE44" s="97"/>
+      <c r="AF44" s="97"/>
+      <c r="AG44" s="97"/>
+      <c r="AH44" s="97"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A45" s="113"/>
-      <c r="B45" s="113"/>
-      <c r="C45" s="113"/>
-      <c r="D45" s="113"/>
-      <c r="E45" s="113"/>
-      <c r="F45" s="113"/>
-      <c r="G45" s="113"/>
-      <c r="H45" s="113"/>
-      <c r="I45" s="113"/>
-      <c r="J45" s="113"/>
-      <c r="K45" s="113"/>
-      <c r="L45" s="113"/>
-      <c r="M45" s="113"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="113"/>
-      <c r="Q45" s="113"/>
-      <c r="R45" s="113"/>
-      <c r="S45" s="113"/>
-      <c r="T45" s="113"/>
-      <c r="U45" s="113"/>
-      <c r="V45" s="113"/>
-      <c r="W45" s="113"/>
-      <c r="X45" s="113"/>
-      <c r="Y45" s="113"/>
-      <c r="Z45" s="113"/>
-      <c r="AA45" s="113"/>
-      <c r="AB45" s="113"/>
-      <c r="AC45" s="113"/>
-      <c r="AD45" s="113"/>
-      <c r="AE45" s="113"/>
-      <c r="AF45" s="113"/>
-      <c r="AG45" s="113"/>
-      <c r="AH45" s="113"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="97"/>
+      <c r="G45" s="97"/>
+      <c r="H45" s="97"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="97"/>
+      <c r="K45" s="97"/>
+      <c r="L45" s="97"/>
+      <c r="M45" s="97"/>
+      <c r="N45" s="97"/>
+      <c r="O45" s="97"/>
+      <c r="P45" s="97"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="97"/>
+      <c r="S45" s="97"/>
+      <c r="T45" s="97"/>
+      <c r="U45" s="97"/>
+      <c r="V45" s="97"/>
+      <c r="W45" s="97"/>
+      <c r="X45" s="97"/>
+      <c r="Y45" s="97"/>
+      <c r="Z45" s="97"/>
+      <c r="AA45" s="97"/>
+      <c r="AB45" s="97"/>
+      <c r="AC45" s="97"/>
+      <c r="AD45" s="97"/>
+      <c r="AE45" s="97"/>
+      <c r="AF45" s="97"/>
+      <c r="AG45" s="97"/>
+      <c r="AH45" s="97"/>
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A46" s="113"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="113"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="113"/>
-      <c r="F46" s="113"/>
-      <c r="G46" s="113"/>
-      <c r="H46" s="113"/>
-      <c r="I46" s="113"/>
-      <c r="J46" s="113"/>
-      <c r="K46" s="113"/>
-      <c r="L46" s="113"/>
-      <c r="M46" s="113"/>
-      <c r="N46" s="113"/>
-      <c r="O46" s="113"/>
-      <c r="P46" s="113"/>
-      <c r="Q46" s="113"/>
-      <c r="R46" s="113"/>
-      <c r="S46" s="113"/>
-      <c r="T46" s="113"/>
-      <c r="U46" s="113"/>
-      <c r="V46" s="113"/>
-      <c r="W46" s="113"/>
-      <c r="X46" s="113"/>
-      <c r="Y46" s="113"/>
-      <c r="Z46" s="113"/>
-      <c r="AA46" s="113"/>
-      <c r="AB46" s="113"/>
-      <c r="AC46" s="113"/>
-      <c r="AD46" s="113"/>
-      <c r="AE46" s="113"/>
-      <c r="AF46" s="113"/>
-      <c r="AG46" s="113"/>
-      <c r="AH46" s="113"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="97"/>
+      <c r="D46" s="97"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="97"/>
+      <c r="G46" s="97"/>
+      <c r="H46" s="97"/>
+      <c r="I46" s="97"/>
+      <c r="J46" s="97"/>
+      <c r="K46" s="97"/>
+      <c r="L46" s="97"/>
+      <c r="M46" s="97"/>
+      <c r="N46" s="97"/>
+      <c r="O46" s="97"/>
+      <c r="P46" s="97"/>
+      <c r="Q46" s="97"/>
+      <c r="R46" s="97"/>
+      <c r="S46" s="97"/>
+      <c r="T46" s="97"/>
+      <c r="U46" s="97"/>
+      <c r="V46" s="97"/>
+      <c r="W46" s="97"/>
+      <c r="X46" s="97"/>
+      <c r="Y46" s="97"/>
+      <c r="Z46" s="97"/>
+      <c r="AA46" s="97"/>
+      <c r="AB46" s="97"/>
+      <c r="AC46" s="97"/>
+      <c r="AD46" s="97"/>
+      <c r="AE46" s="97"/>
+      <c r="AF46" s="97"/>
+      <c r="AG46" s="97"/>
+      <c r="AH46" s="97"/>
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A47" s="115"/>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="115"/>
-      <c r="F47" s="115"/>
-      <c r="G47" s="115"/>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="115"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
-      <c r="N47" s="115"/>
-      <c r="O47" s="115"/>
-      <c r="P47" s="115"/>
-      <c r="Q47" s="115"/>
-      <c r="R47" s="115"/>
-      <c r="S47" s="115"/>
-      <c r="T47" s="115"/>
-      <c r="U47" s="115"/>
-      <c r="V47" s="115"/>
-      <c r="W47" s="115"/>
-      <c r="X47" s="115"/>
-      <c r="Y47" s="115"/>
-      <c r="Z47" s="115"/>
-      <c r="AA47" s="115"/>
-      <c r="AB47" s="115"/>
-      <c r="AC47" s="115"/>
-      <c r="AD47" s="115"/>
-      <c r="AE47" s="115"/>
-      <c r="AF47" s="115"/>
-      <c r="AG47" s="115"/>
-      <c r="AH47" s="115"/>
+      <c r="A47" s="99"/>
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="M47" s="99"/>
+      <c r="N47" s="99"/>
+      <c r="O47" s="99"/>
+      <c r="P47" s="99"/>
+      <c r="Q47" s="99"/>
+      <c r="R47" s="99"/>
+      <c r="S47" s="99"/>
+      <c r="T47" s="99"/>
+      <c r="U47" s="99"/>
+      <c r="V47" s="99"/>
+      <c r="W47" s="99"/>
+      <c r="X47" s="99"/>
+      <c r="Y47" s="99"/>
+      <c r="Z47" s="99"/>
+      <c r="AA47" s="99"/>
+      <c r="AB47" s="99"/>
+      <c r="AC47" s="99"/>
+      <c r="AD47" s="99"/>
+      <c r="AE47" s="99"/>
+      <c r="AF47" s="99"/>
+      <c r="AG47" s="99"/>
+      <c r="AH47" s="99"/>
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A48" s="34" t="s">
+      <c r="A48" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-      <c r="Z48" s="35"/>
-      <c r="AA48" s="35"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="35"/>
-      <c r="AD48" s="35"/>
-      <c r="AE48" s="35"/>
-      <c r="AF48" s="35"/>
-      <c r="AG48" s="35"/>
-      <c r="AH48" s="36"/>
+      <c r="B48" s="101"/>
+      <c r="C48" s="101"/>
+      <c r="D48" s="101"/>
+      <c r="E48" s="101"/>
+      <c r="F48" s="101"/>
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="101"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="101"/>
+      <c r="N48" s="101"/>
+      <c r="O48" s="101"/>
+      <c r="P48" s="101"/>
+      <c r="Q48" s="101"/>
+      <c r="R48" s="101"/>
+      <c r="S48" s="101"/>
+      <c r="T48" s="101"/>
+      <c r="U48" s="101"/>
+      <c r="V48" s="101"/>
+      <c r="W48" s="101"/>
+      <c r="X48" s="101"/>
+      <c r="Y48" s="101"/>
+      <c r="Z48" s="101"/>
+      <c r="AA48" s="101"/>
+      <c r="AB48" s="101"/>
+      <c r="AC48" s="101"/>
+      <c r="AD48" s="101"/>
+      <c r="AE48" s="101"/>
+      <c r="AF48" s="101"/>
+      <c r="AG48" s="101"/>
+      <c r="AH48" s="102"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
-      <c r="K49" s="38"/>
-      <c r="L49" s="39"/>
-      <c r="M49" s="37" t="s">
+      <c r="B49" s="104"/>
+      <c r="C49" s="104"/>
+      <c r="D49" s="104"/>
+      <c r="E49" s="104"/>
+      <c r="F49" s="104"/>
+      <c r="G49" s="104"/>
+      <c r="H49" s="104"/>
+      <c r="I49" s="104"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="105"/>
+      <c r="M49" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
-      <c r="Q49" s="38"/>
-      <c r="R49" s="38"/>
-      <c r="S49" s="38"/>
-      <c r="T49" s="38"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="38"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="37" t="s">
+      <c r="N49" s="104"/>
+      <c r="O49" s="104"/>
+      <c r="P49" s="104"/>
+      <c r="Q49" s="104"/>
+      <c r="R49" s="104"/>
+      <c r="S49" s="104"/>
+      <c r="T49" s="104"/>
+      <c r="U49" s="104"/>
+      <c r="V49" s="104"/>
+      <c r="W49" s="105"/>
+      <c r="X49" s="103" t="s">
         <v>139</v>
       </c>
-      <c r="Y49" s="38"/>
-      <c r="Z49" s="38"/>
-      <c r="AA49" s="38"/>
-      <c r="AB49" s="38"/>
-      <c r="AC49" s="38"/>
-      <c r="AD49" s="38"/>
-      <c r="AE49" s="38"/>
-      <c r="AF49" s="38"/>
-      <c r="AG49" s="38"/>
-      <c r="AH49" s="39"/>
+      <c r="Y49" s="104"/>
+      <c r="Z49" s="104"/>
+      <c r="AA49" s="104"/>
+      <c r="AB49" s="104"/>
+      <c r="AC49" s="104"/>
+      <c r="AD49" s="104"/>
+      <c r="AE49" s="104"/>
+      <c r="AF49" s="104"/>
+      <c r="AG49" s="104"/>
+      <c r="AH49" s="105"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="29"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="29"/>
-      <c r="F50" s="29"/>
-      <c r="G50" s="29"/>
-      <c r="H50" s="29"/>
-      <c r="I50" s="29"/>
-      <c r="J50" s="29"/>
-      <c r="K50" s="29"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="28" t="s">
+      <c r="B50" s="112"/>
+      <c r="C50" s="112"/>
+      <c r="D50" s="112"/>
+      <c r="E50" s="112"/>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="113"/>
+      <c r="M50" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="N50" s="29"/>
-      <c r="O50" s="29"/>
-      <c r="P50" s="29"/>
-      <c r="Q50" s="29"/>
-      <c r="R50" s="29"/>
-      <c r="S50" s="29"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="29"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="30"/>
-      <c r="X50" s="28" t="s">
+      <c r="N50" s="112"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="112"/>
+      <c r="Q50" s="112"/>
+      <c r="R50" s="112"/>
+      <c r="S50" s="112"/>
+      <c r="T50" s="112"/>
+      <c r="U50" s="112"/>
+      <c r="V50" s="112"/>
+      <c r="W50" s="113"/>
+      <c r="X50" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="Y50" s="29"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="30"/>
+      <c r="Y50" s="112"/>
+      <c r="Z50" s="112"/>
+      <c r="AA50" s="112"/>
+      <c r="AB50" s="112"/>
+      <c r="AC50" s="112"/>
+      <c r="AD50" s="112"/>
+      <c r="AE50" s="112"/>
+      <c r="AF50" s="112"/>
+      <c r="AG50" s="112"/>
+      <c r="AH50" s="113"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A51" s="18"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
-      <c r="V51" s="19"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="18"/>
-      <c r="Y51" s="19"/>
-      <c r="Z51" s="19"/>
-      <c r="AA51" s="19"/>
-      <c r="AB51" s="19"/>
-      <c r="AC51" s="19"/>
-      <c r="AD51" s="19"/>
-      <c r="AE51" s="19"/>
-      <c r="AF51" s="19"/>
-      <c r="AG51" s="19"/>
-      <c r="AH51" s="20"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="18"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17"/>
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
+      <c r="AG51" s="17"/>
+      <c r="AH51" s="18"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="27"/>
-      <c r="M52" s="25" t="s">
+      <c r="B52" s="109"/>
+      <c r="C52" s="109"/>
+      <c r="D52" s="109"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="109"/>
+      <c r="J52" s="109"/>
+      <c r="K52" s="109"/>
+      <c r="L52" s="110"/>
+      <c r="M52" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
-      <c r="V52" s="26"/>
-      <c r="W52" s="27"/>
-      <c r="X52" s="25" t="s">
+      <c r="N52" s="109"/>
+      <c r="O52" s="109"/>
+      <c r="P52" s="109"/>
+      <c r="Q52" s="109"/>
+      <c r="R52" s="109"/>
+      <c r="S52" s="109"/>
+      <c r="T52" s="109"/>
+      <c r="U52" s="109"/>
+      <c r="V52" s="109"/>
+      <c r="W52" s="110"/>
+      <c r="X52" s="108" t="s">
         <v>142</v>
       </c>
-      <c r="Y52" s="26"/>
-      <c r="Z52" s="26"/>
-      <c r="AA52" s="26"/>
-      <c r="AB52" s="26"/>
-      <c r="AC52" s="26"/>
-      <c r="AD52" s="26"/>
-      <c r="AE52" s="26"/>
-      <c r="AF52" s="26"/>
-      <c r="AG52" s="26"/>
-      <c r="AH52" s="27"/>
+      <c r="Y52" s="109"/>
+      <c r="Z52" s="109"/>
+      <c r="AA52" s="109"/>
+      <c r="AB52" s="109"/>
+      <c r="AC52" s="109"/>
+      <c r="AD52" s="109"/>
+      <c r="AE52" s="109"/>
+      <c r="AF52" s="109"/>
+      <c r="AG52" s="109"/>
+      <c r="AH52" s="110"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="25" t="s">
+      <c r="B53" s="109"/>
+      <c r="C53" s="109"/>
+      <c r="D53" s="109"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="109"/>
+      <c r="K53" s="109"/>
+      <c r="L53" s="110"/>
+      <c r="M53" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="26"/>
-      <c r="Q53" s="26"/>
-      <c r="R53" s="26"/>
-      <c r="S53" s="26"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="26"/>
-      <c r="V53" s="26"/>
-      <c r="W53" s="27"/>
-      <c r="X53" s="25" t="s">
+      <c r="N53" s="109"/>
+      <c r="O53" s="109"/>
+      <c r="P53" s="109"/>
+      <c r="Q53" s="109"/>
+      <c r="R53" s="109"/>
+      <c r="S53" s="109"/>
+      <c r="T53" s="109"/>
+      <c r="U53" s="109"/>
+      <c r="V53" s="109"/>
+      <c r="W53" s="110"/>
+      <c r="X53" s="108" t="s">
         <v>143</v>
       </c>
-      <c r="Y53" s="26"/>
-      <c r="Z53" s="26"/>
-      <c r="AA53" s="26"/>
-      <c r="AB53" s="26"/>
-      <c r="AC53" s="26"/>
-      <c r="AD53" s="26"/>
-      <c r="AE53" s="26"/>
-      <c r="AF53" s="26"/>
-      <c r="AG53" s="26"/>
-      <c r="AH53" s="27"/>
+      <c r="Y53" s="109"/>
+      <c r="Z53" s="109"/>
+      <c r="AA53" s="109"/>
+      <c r="AB53" s="109"/>
+      <c r="AC53" s="109"/>
+      <c r="AD53" s="109"/>
+      <c r="AE53" s="109"/>
+      <c r="AF53" s="109"/>
+      <c r="AG53" s="109"/>
+      <c r="AH53" s="110"/>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="23" t="s">
+      <c r="B54" s="106"/>
+      <c r="C54" s="106"/>
+      <c r="D54" s="106"/>
+      <c r="E54" s="106"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
+      <c r="J54" s="106"/>
+      <c r="K54" s="106"/>
+      <c r="L54" s="107"/>
+      <c r="M54" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="24"/>
-      <c r="X54" s="23" t="s">
+      <c r="N54" s="106"/>
+      <c r="O54" s="106"/>
+      <c r="P54" s="106"/>
+      <c r="Q54" s="106"/>
+      <c r="R54" s="106"/>
+      <c r="S54" s="106"/>
+      <c r="T54" s="106"/>
+      <c r="U54" s="106"/>
+      <c r="V54" s="106"/>
+      <c r="W54" s="107"/>
+      <c r="X54" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="23"/>
-      <c r="AD54" s="23"/>
-      <c r="AE54" s="23"/>
-      <c r="AF54" s="23"/>
-      <c r="AG54" s="23"/>
-      <c r="AH54" s="24"/>
+      <c r="Y54" s="106"/>
+      <c r="Z54" s="106"/>
+      <c r="AA54" s="106"/>
+      <c r="AB54" s="106"/>
+      <c r="AC54" s="106"/>
+      <c r="AD54" s="106"/>
+      <c r="AE54" s="106"/>
+      <c r="AF54" s="106"/>
+      <c r="AG54" s="106"/>
+      <c r="AH54" s="107"/>
     </row>
   </sheetData>
-  <mergeCells count="281">
+  <mergeCells count="282">
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:W50"/>
+    <mergeCell ref="X50:AH50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AH52"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="AA54:AH54"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA53:AH53"/>
+    <mergeCell ref="A48:AH48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="M49:W49"/>
+    <mergeCell ref="X49:AH49"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="A42:AH47"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:AH40"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:AH35"/>
+    <mergeCell ref="V34:AH34"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="R32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="R31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="R30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="R28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="R27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="R26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="R25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="R24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="R21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="R20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="R19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="R18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="R16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="R15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="R12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="R13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:AH7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AH8"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="K5:N5"/>
@@ -4554,268 +4816,7 @@
     <mergeCell ref="AB4:AH4"/>
     <mergeCell ref="T6:X6"/>
     <mergeCell ref="Y6:AH6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:AH7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AH8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="R12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="R13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="R15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="R17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="R16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="R19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="R18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="R21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="R20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="R25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="R24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="R27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="R26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="R29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="R28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="R31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="R30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="R32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:AH35"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:AH40"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="A48:AH48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="M49:W49"/>
-    <mergeCell ref="X49:AH49"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
     <mergeCell ref="O5:AH5"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:W54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="AA54:AH54"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA53:AH53"/>
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:W50"/>
-    <mergeCell ref="X50:AH50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AA52:AH52"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="A42:AH47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4823,6 +4824,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="807eb2660dd8ce2169584ac47dcb7049">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ff3b9ec0591c1e5bf852b570c8721a7" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -5045,22 +5061,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D922F287-5AB0-4BC3-AA12-09BA2EE5889D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F118502C-F62B-4199-AF8C-AC0190518B17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2413DD6D-ED29-4ADE-BE81-9FAECFFA8200}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5077,29 +5103,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F118502C-F62B-4199-AF8C-AC0190518B17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D922F287-5AB0-4BC3-AA12-09BA2EE5889D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormM.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormM.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="144">
   <si>
     <t>CONTRACT NO: PWD/HO/B130/2019</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Description:</t>
-  </si>
-  <si>
-    <t>CLEAN, CLEAR, RESHAPE EARTH DRAIN BY EXCAVATOR</t>
   </si>
   <si>
     <t>Audit Time:</t>
@@ -476,7 +473,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,13 +530,6 @@
     <font>
       <b/>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="0" tint="-0.14999847407452621"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1130,60 +1120,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1279,16 +1269,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="18" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="18" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1312,28 +1296,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1342,64 +1326,64 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1408,14 +1392,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1429,53 +1419,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2339,57 +2323,55 @@
       <c r="L7" s="20"/>
       <c r="M7" s="20"/>
       <c r="N7" s="20"/>
-      <c r="O7" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="P7" s="50"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="50"/>
-      <c r="Y7" s="50"/>
-      <c r="Z7" s="50"/>
-      <c r="AA7" s="50"/>
-      <c r="AB7" s="50"/>
-      <c r="AC7" s="50"/>
-      <c r="AD7" s="50"/>
-      <c r="AE7" s="50"/>
-      <c r="AF7" s="50"/>
-      <c r="AG7" s="50"/>
-      <c r="AH7" s="51"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="23"/>
+      <c r="AE7" s="23"/>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="23"/>
+      <c r="AH7" s="49"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="53"/>
+        <v>14</v>
+      </c>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
       <c r="J8" s="13"/>
       <c r="K8" s="22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="20"/>
       <c r="M8" s="20"/>
       <c r="N8" s="20"/>
-      <c r="O8" s="54"/>
+      <c r="O8" s="52"/>
       <c r="P8" s="23"/>
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
       <c r="T8" s="48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="U8" s="21"/>
       <c r="V8" s="21"/>
@@ -2404,53 +2386,53 @@
       <c r="AE8" s="21"/>
       <c r="AF8" s="21"/>
       <c r="AG8" s="21"/>
-      <c r="AH8" s="55"/>
+      <c r="AH8" s="53"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="59" t="s">
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="U9" s="58"/>
-      <c r="V9" s="58"/>
-      <c r="W9" s="58"/>
-      <c r="X9" s="58"/>
-      <c r="Y9" s="58"/>
-      <c r="Z9" s="58"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="58"/>
-      <c r="AC9" s="58"/>
-      <c r="AD9" s="58"/>
-      <c r="AE9" s="58"/>
-      <c r="AF9" s="58"/>
-      <c r="AG9" s="58"/>
-      <c r="AH9" s="60"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="58"/>
     </row>
     <row r="10" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2487,1363 +2469,1365 @@
       <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="63" t="s">
+      <c r="K11" s="61"/>
+      <c r="L11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="63"/>
-      <c r="L11" s="14" t="s">
+      <c r="M11" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="M11" s="63" t="s">
+      <c r="N11" s="61"/>
+      <c r="O11" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="N11" s="63"/>
-      <c r="O11" s="63" t="s">
+      <c r="P11" s="62"/>
+      <c r="Q11" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="61" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="63" t="s">
+      <c r="R11" s="60"/>
+      <c r="S11" s="60"/>
+      <c r="T11" s="60"/>
+      <c r="U11" s="60"/>
+      <c r="V11" s="60"/>
+      <c r="W11" s="60"/>
+      <c r="X11" s="60"/>
+      <c r="Y11" s="60"/>
+      <c r="Z11" s="60"/>
+      <c r="AA11" s="60"/>
+      <c r="AB11" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC11" s="61"/>
+      <c r="AD11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="AC11" s="63"/>
-      <c r="AD11" s="14" t="s">
+      <c r="AE11" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="AE11" s="63" t="s">
+      <c r="AF11" s="61"/>
+      <c r="AG11" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH11" s="64"/>
+      <c r="AH11" s="62"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="65" t="s">
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="65"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="66"/>
+      <c r="K12" s="64"/>
       <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="68"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="66"/>
       <c r="Q12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="65" t="s">
+      <c r="S12" s="63"/>
+      <c r="T12" s="63"/>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="65"/>
-      <c r="V12" s="65"/>
-      <c r="W12" s="65"/>
-      <c r="X12" s="65"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="65"/>
-      <c r="AA12" s="65"/>
-      <c r="AB12" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC12" s="66"/>
+      <c r="AC12" s="64"/>
       <c r="AD12" s="4">
         <v>15</v>
       </c>
-      <c r="AE12" s="69"/>
-      <c r="AF12" s="69"/>
-      <c r="AG12" s="69"/>
-      <c r="AH12" s="70"/>
+      <c r="AE12" s="67"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="68"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="71" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="72"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="70"/>
       <c r="L13" s="6">
         <v>5</v>
       </c>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="74"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="72"/>
       <c r="Q13" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="R13" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="S13" s="75"/>
-      <c r="T13" s="75"/>
-      <c r="U13" s="75"/>
-      <c r="V13" s="75"/>
-      <c r="W13" s="75"/>
-      <c r="X13" s="75"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="75"/>
-      <c r="AA13" s="75"/>
-      <c r="AB13" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC13" s="76"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC13" s="74"/>
       <c r="AD13" s="8">
         <v>15</v>
       </c>
-      <c r="AE13" s="77"/>
-      <c r="AF13" s="77"/>
-      <c r="AG13" s="77"/>
-      <c r="AH13" s="78"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
+      <c r="AH13" s="76"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="72"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="70"/>
       <c r="L14" s="6">
         <v>5</v>
       </c>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="R14" s="82"/>
-      <c r="S14" s="82"/>
-      <c r="T14" s="82"/>
-      <c r="U14" s="82"/>
-      <c r="V14" s="82"/>
-      <c r="W14" s="82"/>
-      <c r="X14" s="82"/>
-      <c r="Y14" s="82"/>
-      <c r="Z14" s="82"/>
-      <c r="AA14" s="82"/>
-      <c r="AB14" s="79" t="s">
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="80"/>
+      <c r="S14" s="80"/>
+      <c r="T14" s="80"/>
+      <c r="U14" s="80"/>
+      <c r="V14" s="80"/>
+      <c r="W14" s="80"/>
+      <c r="X14" s="80"/>
+      <c r="Y14" s="80"/>
+      <c r="Z14" s="80"/>
+      <c r="AA14" s="80"/>
+      <c r="AB14" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC14" s="77"/>
+      <c r="AD14" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AC14" s="79"/>
-      <c r="AD14" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE14" s="79"/>
-      <c r="AF14" s="79"/>
-      <c r="AG14" s="79"/>
-      <c r="AH14" s="80"/>
+      <c r="AE14" s="77"/>
+      <c r="AF14" s="77"/>
+      <c r="AG14" s="77"/>
+      <c r="AH14" s="78"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="72"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="70"/>
       <c r="L15" s="6">
         <v>5</v>
       </c>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="74"/>
+      <c r="M15" s="71"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="72"/>
       <c r="Q15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="R15" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
-      <c r="AB15" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC15" s="66"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC15" s="64"/>
       <c r="AD15" s="4">
         <v>20</v>
       </c>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="67"/>
-      <c r="AG15" s="67"/>
-      <c r="AH15" s="68"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="65"/>
+      <c r="AG15" s="65"/>
+      <c r="AH15" s="66"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="K16" s="72"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="70"/>
       <c r="L16" s="6">
         <v>5</v>
       </c>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="74"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="72"/>
       <c r="Q16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="R16" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC16" s="72"/>
+      <c r="S16" s="69"/>
+      <c r="T16" s="69"/>
+      <c r="U16" s="69"/>
+      <c r="V16" s="69"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC16" s="70"/>
       <c r="AD16" s="6">
         <v>10</v>
       </c>
-      <c r="AE16" s="73"/>
-      <c r="AF16" s="73"/>
-      <c r="AG16" s="73"/>
-      <c r="AH16" s="74"/>
+      <c r="AE16" s="71"/>
+      <c r="AF16" s="71"/>
+      <c r="AG16" s="71"/>
+      <c r="AH16" s="72"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="K17" s="72"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="70"/>
       <c r="L17" s="6">
         <v>5</v>
       </c>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="74"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="72"/>
       <c r="Q17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="R17" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="R17" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="S17" s="71"/>
-      <c r="T17" s="71"/>
-      <c r="U17" s="71"/>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="71"/>
-      <c r="Z17" s="71"/>
-      <c r="AA17" s="71"/>
-      <c r="AB17" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC17" s="72"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC17" s="70"/>
       <c r="AD17" s="6">
         <v>25</v>
       </c>
-      <c r="AE17" s="73"/>
-      <c r="AF17" s="73"/>
-      <c r="AG17" s="73"/>
-      <c r="AH17" s="74"/>
+      <c r="AE17" s="71"/>
+      <c r="AF17" s="71"/>
+      <c r="AG17" s="71"/>
+      <c r="AH17" s="72"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="72"/>
+      <c r="K18" s="70"/>
       <c r="L18" s="6">
         <v>5</v>
       </c>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="74"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="72"/>
       <c r="Q18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="R18" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="R18" s="71" t="s">
-        <v>57</v>
-      </c>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC18" s="72"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="69"/>
+      <c r="AB18" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC18" s="70"/>
       <c r="AD18" s="6">
         <v>15</v>
       </c>
-      <c r="AE18" s="73"/>
-      <c r="AF18" s="73"/>
-      <c r="AG18" s="73"/>
-      <c r="AH18" s="74"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="71"/>
+      <c r="AG18" s="71"/>
+      <c r="AH18" s="72"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>59</v>
-      </c>
       <c r="C19" s="10"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="K19" s="74"/>
       <c r="L19" s="8">
         <v>5</v>
       </c>
-      <c r="M19" s="77"/>
-      <c r="N19" s="77"/>
-      <c r="O19" s="77"/>
-      <c r="P19" s="78"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
+      <c r="P19" s="76"/>
       <c r="Q19" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="R19" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="R19" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="S19" s="71"/>
-      <c r="T19" s="71"/>
-      <c r="U19" s="71"/>
-      <c r="V19" s="71"/>
-      <c r="W19" s="71"/>
-      <c r="X19" s="71"/>
-      <c r="Y19" s="71"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="71"/>
-      <c r="AB19" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC19" s="72"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC19" s="70"/>
       <c r="AD19" s="6">
         <v>25</v>
       </c>
-      <c r="AE19" s="73"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="73"/>
-      <c r="AH19" s="74"/>
+      <c r="AE19" s="71"/>
+      <c r="AF19" s="71"/>
+      <c r="AG19" s="71"/>
+      <c r="AH19" s="72"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="81" t="s">
+      <c r="A20" s="79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="77"/>
+      <c r="L20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="78"/>
+      <c r="Q20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="82"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="82"/>
-      <c r="J20" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="79"/>
-      <c r="L20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="P20" s="80"/>
-      <c r="Q20" s="5" t="s">
+      <c r="R20" s="69" t="s">
         <v>63</v>
       </c>
-      <c r="R20" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC20" s="72"/>
+      <c r="S20" s="69"/>
+      <c r="T20" s="69"/>
+      <c r="U20" s="69"/>
+      <c r="V20" s="69"/>
+      <c r="W20" s="69"/>
+      <c r="X20" s="69"/>
+      <c r="Y20" s="69"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="69"/>
+      <c r="AB20" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC20" s="70"/>
       <c r="AD20" s="6">
         <v>25</v>
       </c>
-      <c r="AE20" s="73"/>
-      <c r="AF20" s="73"/>
-      <c r="AG20" s="73"/>
-      <c r="AH20" s="74"/>
+      <c r="AE20" s="71"/>
+      <c r="AF20" s="71"/>
+      <c r="AG20" s="71"/>
+      <c r="AH20" s="72"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="83" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="66" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="66"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="64"/>
       <c r="L21" s="4">
         <v>5</v>
       </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="68"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="66"/>
       <c r="Q21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="R21" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC21" s="76"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC21" s="74"/>
       <c r="AD21" s="8">
         <v>15</v>
       </c>
-      <c r="AE21" s="77"/>
-      <c r="AF21" s="77"/>
-      <c r="AG21" s="77"/>
-      <c r="AH21" s="78"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="76"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="B22" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22" s="86"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="86"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="72"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="84"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
+      <c r="J22" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="70"/>
       <c r="L22" s="6">
         <v>5</v>
       </c>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="74"/>
-      <c r="Q22" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="R22" s="82"/>
-      <c r="S22" s="82"/>
-      <c r="T22" s="82"/>
-      <c r="U22" s="82"/>
-      <c r="V22" s="82"/>
-      <c r="W22" s="82"/>
-      <c r="X22" s="82"/>
-      <c r="Y22" s="82"/>
-      <c r="Z22" s="82"/>
-      <c r="AA22" s="82"/>
-      <c r="AB22" s="79" t="s">
+      <c r="M22" s="71"/>
+      <c r="N22" s="71"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="80"/>
+      <c r="X22" s="80"/>
+      <c r="Y22" s="80"/>
+      <c r="Z22" s="80"/>
+      <c r="AA22" s="80"/>
+      <c r="AB22" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="15" t="s">
+      <c r="AE22" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="AE22" s="79" t="s">
+      <c r="AF22" s="77"/>
+      <c r="AG22" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH22" s="80"/>
+      <c r="AH22" s="78"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="69" t="s">
         <v>72</v>
       </c>
-      <c r="B23" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="72"/>
+      <c r="C23" s="69"/>
+      <c r="D23" s="69"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="70"/>
       <c r="L23" s="6">
         <v>5</v>
       </c>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="74"/>
+      <c r="M23" s="71"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="72"/>
       <c r="Q23" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="R23" s="63" t="s">
         <v>74</v>
       </c>
-      <c r="R23" s="65" t="s">
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="64" t="s">
         <v>75</v>
       </c>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="65"/>
-      <c r="X23" s="65"/>
-      <c r="Y23" s="65"/>
-      <c r="Z23" s="65"/>
-      <c r="AA23" s="65"/>
-      <c r="AB23" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC23" s="66"/>
+      <c r="AC23" s="64"/>
       <c r="AD23" s="4">
         <v>5</v>
       </c>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="67"/>
-      <c r="AG23" s="67"/>
-      <c r="AH23" s="68"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="66"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="72"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="70"/>
       <c r="L24" s="6">
         <v>5</v>
       </c>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="74"/>
+      <c r="M24" s="71"/>
+      <c r="N24" s="71"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="72"/>
       <c r="Q24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="R24" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="R24" s="71" t="s">
-        <v>80</v>
-      </c>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC24" s="72"/>
+      <c r="S24" s="69"/>
+      <c r="T24" s="69"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
+      <c r="Y24" s="69"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="69"/>
+      <c r="AB24" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC24" s="70"/>
       <c r="AD24" s="6">
         <v>5</v>
       </c>
-      <c r="AE24" s="73"/>
-      <c r="AF24" s="73"/>
-      <c r="AG24" s="73"/>
-      <c r="AH24" s="74"/>
+      <c r="AE24" s="71"/>
+      <c r="AF24" s="71"/>
+      <c r="AG24" s="71"/>
+      <c r="AH24" s="72"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="72"/>
+      <c r="C25" s="69"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="70"/>
       <c r="L25" s="6">
         <v>5</v>
       </c>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="74"/>
+      <c r="M25" s="71"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="72"/>
       <c r="Q25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="R25" s="69" t="s">
         <v>83</v>
       </c>
-      <c r="R25" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC25" s="72"/>
+      <c r="S25" s="69"/>
+      <c r="T25" s="69"/>
+      <c r="U25" s="69"/>
+      <c r="V25" s="69"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC25" s="70"/>
       <c r="AD25" s="6">
         <v>5</v>
       </c>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-      <c r="AG25" s="73"/>
-      <c r="AH25" s="74"/>
+      <c r="AE25" s="71"/>
+      <c r="AF25" s="71"/>
+      <c r="AG25" s="71"/>
+      <c r="AH25" s="72"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="69" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="72"/>
+      <c r="C26" s="69"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="70"/>
       <c r="L26" s="6">
         <v>5</v>
       </c>
-      <c r="M26" s="73"/>
-      <c r="N26" s="73"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="74"/>
+      <c r="M26" s="71"/>
+      <c r="N26" s="71"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="72"/>
       <c r="Q26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R26" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="R26" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC26" s="72"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
+      <c r="U26" s="69"/>
+      <c r="V26" s="69"/>
+      <c r="W26" s="69"/>
+      <c r="X26" s="69"/>
+      <c r="Y26" s="69"/>
+      <c r="Z26" s="69"/>
+      <c r="AA26" s="69"/>
+      <c r="AB26" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC26" s="70"/>
       <c r="AD26" s="6">
         <v>5</v>
       </c>
-      <c r="AE26" s="73"/>
-      <c r="AF26" s="73"/>
-      <c r="AG26" s="73"/>
-      <c r="AH26" s="74"/>
+      <c r="AE26" s="71"/>
+      <c r="AF26" s="71"/>
+      <c r="AG26" s="71"/>
+      <c r="AH26" s="72"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="K27" s="72"/>
+        <v>88</v>
+      </c>
+      <c r="B27" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="70"/>
       <c r="L27" s="6">
         <v>5</v>
       </c>
-      <c r="M27" s="73"/>
-      <c r="N27" s="73"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="74"/>
+      <c r="M27" s="71"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="72"/>
       <c r="Q27" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="R27" s="69" t="s">
         <v>90</v>
       </c>
-      <c r="R27" s="71" t="s">
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
+      <c r="U27" s="69"/>
+      <c r="V27" s="69"/>
+      <c r="W27" s="69"/>
+      <c r="X27" s="69"/>
+      <c r="Y27" s="69"/>
+      <c r="Z27" s="69"/>
+      <c r="AA27" s="69"/>
+      <c r="AB27" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="72" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC27" s="72"/>
+      <c r="AC27" s="70"/>
       <c r="AD27" s="6">
         <v>10</v>
       </c>
-      <c r="AE27" s="73"/>
-      <c r="AF27" s="73"/>
-      <c r="AG27" s="73"/>
-      <c r="AH27" s="74"/>
+      <c r="AE27" s="71"/>
+      <c r="AF27" s="71"/>
+      <c r="AG27" s="71"/>
+      <c r="AH27" s="72"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B28" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="75" t="s">
-        <v>94</v>
-      </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="76" t="s">
-        <v>33</v>
-      </c>
-      <c r="K28" s="76"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="73"/>
+      <c r="J28" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="74"/>
       <c r="L28" s="8">
         <v>5</v>
       </c>
-      <c r="M28" s="77"/>
-      <c r="N28" s="77"/>
-      <c r="O28" s="77"/>
-      <c r="P28" s="78"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="75"/>
+      <c r="O28" s="75"/>
+      <c r="P28" s="76"/>
       <c r="Q28" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="R28" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="R28" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="72" t="s">
-        <v>76</v>
-      </c>
-      <c r="AC28" s="72"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
+      <c r="U28" s="69"/>
+      <c r="V28" s="69"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="70" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC28" s="70"/>
       <c r="AD28" s="6">
         <v>5</v>
       </c>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-      <c r="AG28" s="73"/>
-      <c r="AH28" s="74"/>
+      <c r="AE28" s="71"/>
+      <c r="AF28" s="71"/>
+      <c r="AG28" s="71"/>
+      <c r="AH28" s="72"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A29" s="81" t="s">
+      <c r="A29" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="77"/>
+      <c r="L29" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="77"/>
+      <c r="O29" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="78"/>
+      <c r="Q29" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="82"/>
-      <c r="C29" s="82"/>
-      <c r="D29" s="82"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="K29" s="79"/>
-      <c r="L29" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="P29" s="80"/>
-      <c r="Q29" s="5" t="s">
+      <c r="R29" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="R29" s="71" t="s">
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
+      <c r="U29" s="69"/>
+      <c r="V29" s="69"/>
+      <c r="W29" s="69"/>
+      <c r="X29" s="69"/>
+      <c r="Y29" s="69"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="69"/>
+      <c r="AB29" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="S29" s="71"/>
-      <c r="T29" s="71"/>
-      <c r="U29" s="71"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="71"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="71"/>
-      <c r="Z29" s="71"/>
-      <c r="AA29" s="71"/>
-      <c r="AB29" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC29" s="72"/>
+      <c r="AC29" s="70"/>
       <c r="AD29" s="6">
         <v>10</v>
       </c>
-      <c r="AE29" s="73"/>
-      <c r="AF29" s="73"/>
-      <c r="AG29" s="73"/>
-      <c r="AH29" s="74"/>
+      <c r="AE29" s="71"/>
+      <c r="AF29" s="71"/>
+      <c r="AG29" s="71"/>
+      <c r="AH29" s="72"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="83" t="s">
         <v>101</v>
       </c>
-      <c r="B30" s="85" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
-      <c r="J30" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="K30" s="66"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="83"/>
+      <c r="E30" s="83"/>
+      <c r="F30" s="83"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
+      <c r="J30" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="64"/>
       <c r="L30" s="4">
         <v>10</v>
       </c>
-      <c r="M30" s="67"/>
-      <c r="N30" s="67"/>
-      <c r="O30" s="67"/>
-      <c r="P30" s="68"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="66"/>
       <c r="Q30" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="R30" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="R30" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="72" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC30" s="72"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
+      <c r="U30" s="69"/>
+      <c r="V30" s="69"/>
+      <c r="W30" s="69"/>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="69"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="69"/>
+      <c r="AB30" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC30" s="70"/>
       <c r="AD30" s="6">
         <v>10</v>
       </c>
-      <c r="AE30" s="73"/>
-      <c r="AF30" s="73"/>
-      <c r="AG30" s="73"/>
-      <c r="AH30" s="74"/>
+      <c r="AE30" s="71"/>
+      <c r="AF30" s="71"/>
+      <c r="AG30" s="71"/>
+      <c r="AH30" s="72"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B31" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="B31" s="75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C31" s="75"/>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="75"/>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="I31" s="75"/>
-      <c r="J31" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="K31" s="76"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="73"/>
+      <c r="J31" s="74" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="74"/>
       <c r="L31" s="8">
         <v>10</v>
       </c>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="78"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="75"/>
+      <c r="O31" s="75"/>
+      <c r="P31" s="76"/>
       <c r="Q31" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="R31" s="84" t="s">
         <v>107</v>
       </c>
-      <c r="R31" s="86" t="s">
+      <c r="S31" s="84"/>
+      <c r="T31" s="84"/>
+      <c r="U31" s="84"/>
+      <c r="V31" s="84"/>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="84"/>
+      <c r="AA31" s="84"/>
+      <c r="AB31" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="S31" s="86"/>
-      <c r="T31" s="86"/>
-      <c r="U31" s="86"/>
-      <c r="V31" s="86"/>
-      <c r="W31" s="86"/>
-      <c r="X31" s="86"/>
-      <c r="Y31" s="86"/>
-      <c r="Z31" s="86"/>
-      <c r="AA31" s="86"/>
-      <c r="AB31" s="72" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC31" s="72"/>
+      <c r="AC31" s="70"/>
       <c r="AD31" s="6">
         <v>10</v>
       </c>
-      <c r="AE31" s="73"/>
-      <c r="AF31" s="73"/>
-      <c r="AG31" s="73"/>
-      <c r="AH31" s="74"/>
+      <c r="AE31" s="71"/>
+      <c r="AF31" s="71"/>
+      <c r="AG31" s="71"/>
+      <c r="AH31" s="72"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A32" s="81" t="s">
+      <c r="A32" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="77" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="77"/>
+      <c r="L32" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="77" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="78"/>
+      <c r="Q32" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B32" s="82"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="82"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="82"/>
-      <c r="J32" s="79" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="79"/>
-      <c r="L32" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="N32" s="79"/>
-      <c r="O32" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="11" t="s">
+      <c r="R32" s="87" t="s">
         <v>111</v>
       </c>
-      <c r="R32" s="89" t="s">
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="87"/>
+      <c r="AB32" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="S32" s="89"/>
-      <c r="T32" s="89"/>
-      <c r="U32" s="89"/>
-      <c r="V32" s="89"/>
-      <c r="W32" s="89"/>
-      <c r="X32" s="89"/>
-      <c r="Y32" s="89"/>
-      <c r="Z32" s="89"/>
-      <c r="AA32" s="89"/>
-      <c r="AB32" s="90" t="s">
-        <v>113</v>
-      </c>
-      <c r="AC32" s="90"/>
+      <c r="AC32" s="88"/>
       <c r="AD32" s="12">
         <v>5</v>
       </c>
-      <c r="AE32" s="87"/>
-      <c r="AF32" s="87"/>
-      <c r="AG32" s="87"/>
-      <c r="AH32" s="88"/>
+      <c r="AE32" s="85"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="85"/>
+      <c r="AH32" s="86"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="B33" s="65" t="s">
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="K33" s="66"/>
+      <c r="K33" s="64"/>
       <c r="L33" s="4">
         <v>10</v>
       </c>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="68"/>
-      <c r="Q33" s="61" t="s">
-        <v>117</v>
-      </c>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="63"/>
-      <c r="AC33" s="63"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="R33" s="60"/>
+      <c r="S33" s="60"/>
+      <c r="T33" s="60"/>
+      <c r="U33" s="60"/>
+      <c r="V33" s="60"/>
+      <c r="W33" s="60"/>
+      <c r="X33" s="60"/>
+      <c r="Y33" s="60"/>
+      <c r="Z33" s="60"/>
+      <c r="AA33" s="60"/>
+      <c r="AB33" s="61"/>
+      <c r="AC33" s="61"/>
       <c r="AD33" s="14"/>
-      <c r="AE33" s="63"/>
-      <c r="AF33" s="63"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="64"/>
+      <c r="AE33" s="61"/>
+      <c r="AF33" s="61"/>
+      <c r="AG33" s="61"/>
+      <c r="AH33" s="62"/>
     </row>
     <row r="34" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B34" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="B34" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="K34" s="72"/>
+      <c r="C34" s="69"/>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="K34" s="70"/>
       <c r="L34" s="6">
         <v>10</v>
       </c>
-      <c r="M34" s="73"/>
-      <c r="N34" s="73"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="91"/>
-      <c r="R34" s="92"/>
-      <c r="S34" s="92"/>
-      <c r="T34" s="92"/>
-      <c r="V34" s="114"/>
-      <c r="W34" s="114"/>
-      <c r="X34" s="114"/>
-      <c r="Y34" s="114"/>
-      <c r="Z34" s="114"/>
-      <c r="AA34" s="114"/>
-      <c r="AB34" s="114"/>
-      <c r="AC34" s="114"/>
-      <c r="AD34" s="114"/>
-      <c r="AE34" s="114"/>
-      <c r="AF34" s="114"/>
-      <c r="AG34" s="114"/>
-      <c r="AH34" s="115"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="72"/>
+      <c r="Q34" s="89"/>
+      <c r="R34" s="90"/>
+      <c r="S34" s="90"/>
+      <c r="T34" s="90"/>
+      <c r="V34" s="94"/>
+      <c r="W34" s="94"/>
+      <c r="X34" s="94"/>
+      <c r="Y34" s="94"/>
+      <c r="Z34" s="94"/>
+      <c r="AA34" s="94"/>
+      <c r="AB34" s="94"/>
+      <c r="AC34" s="94"/>
+      <c r="AD34" s="94"/>
+      <c r="AE34" s="94"/>
+      <c r="AF34" s="94"/>
+      <c r="AG34" s="94"/>
+      <c r="AH34" s="95"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B35" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="B35" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="K35" s="72"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="K35" s="70"/>
       <c r="L35" s="6">
         <v>15</v>
       </c>
-      <c r="M35" s="73"/>
-      <c r="N35" s="73"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="R35" s="94"/>
-      <c r="S35" s="94"/>
-      <c r="T35" s="94"/>
-      <c r="U35" s="94"/>
-      <c r="V35" s="94"/>
-      <c r="W35" s="94"/>
-      <c r="X35" s="94"/>
-      <c r="Y35" s="94"/>
-      <c r="Z35" s="94"/>
-      <c r="AA35" s="94"/>
-      <c r="AB35" s="94"/>
-      <c r="AC35" s="94"/>
-      <c r="AD35" s="94"/>
-      <c r="AE35" s="94"/>
-      <c r="AF35" s="94"/>
-      <c r="AG35" s="94"/>
-      <c r="AH35" s="95"/>
+      <c r="M35" s="71"/>
+      <c r="N35" s="71"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="72"/>
+      <c r="Q35" s="91" t="s">
+        <v>121</v>
+      </c>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+      <c r="T35" s="92"/>
+      <c r="U35" s="92"/>
+      <c r="V35" s="92"/>
+      <c r="W35" s="92"/>
+      <c r="X35" s="92"/>
+      <c r="Y35" s="92"/>
+      <c r="Z35" s="92"/>
+      <c r="AA35" s="92"/>
+      <c r="AB35" s="92"/>
+      <c r="AC35" s="92"/>
+      <c r="AD35" s="92"/>
+      <c r="AE35" s="92"/>
+      <c r="AF35" s="92"/>
+      <c r="AG35" s="92"/>
+      <c r="AH35" s="93"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B36" s="69" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="71" t="s">
-        <v>124</v>
-      </c>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="K36" s="72"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="K36" s="70"/>
       <c r="L36" s="6">
         <v>10</v>
       </c>
-      <c r="M36" s="73"/>
-      <c r="N36" s="73"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="63"/>
-      <c r="AC36" s="63"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="72"/>
+      <c r="Q36" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="R36" s="60"/>
+      <c r="S36" s="60"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="60"/>
+      <c r="V36" s="60"/>
+      <c r="W36" s="60"/>
+      <c r="X36" s="60"/>
+      <c r="Y36" s="60"/>
+      <c r="Z36" s="60"/>
+      <c r="AA36" s="60"/>
+      <c r="AB36" s="61"/>
+      <c r="AC36" s="61"/>
       <c r="AD36" s="14"/>
-      <c r="AE36" s="63"/>
-      <c r="AF36" s="63"/>
-      <c r="AG36" s="63"/>
-      <c r="AH36" s="64"/>
+      <c r="AE36" s="61"/>
+      <c r="AF36" s="61"/>
+      <c r="AG36" s="61"/>
+      <c r="AH36" s="62"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B37" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="K37" s="72"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="K37" s="70"/>
       <c r="L37" s="6">
         <v>5</v>
       </c>
-      <c r="M37" s="73"/>
-      <c r="N37" s="73"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="74"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="72"/>
       <c r="Q37" s="96"/>
       <c r="R37" s="97"/>
       <c r="S37" s="97"/>
@@ -3865,29 +3849,29 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B38" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="72" t="s">
-        <v>116</v>
-      </c>
-      <c r="K38" s="72"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="K38" s="70"/>
       <c r="L38" s="6">
         <v>5</v>
       </c>
-      <c r="M38" s="73"/>
-      <c r="N38" s="73"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="74"/>
+      <c r="M38" s="71"/>
+      <c r="N38" s="71"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="72"/>
       <c r="Q38" s="96"/>
       <c r="R38" s="97"/>
       <c r="S38" s="97"/>
@@ -3909,29 +3893,29 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B39" s="69" t="s">
         <v>130</v>
       </c>
-      <c r="B39" s="71" t="s">
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="72" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39" s="72"/>
+      <c r="K39" s="70"/>
       <c r="L39" s="6">
         <v>5</v>
       </c>
-      <c r="M39" s="73"/>
-      <c r="N39" s="73"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="74"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="72"/>
       <c r="Q39" s="96"/>
       <c r="R39" s="97"/>
       <c r="S39" s="97"/>
@@ -3953,29 +3937,29 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B40" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="B40" s="86" t="s">
+      <c r="C40" s="84"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="72" t="s">
-        <v>135</v>
-      </c>
-      <c r="K40" s="72"/>
+      <c r="K40" s="70"/>
       <c r="L40" s="12">
         <v>5</v>
       </c>
-      <c r="M40" s="77"/>
-      <c r="N40" s="77"/>
-      <c r="O40" s="77"/>
-      <c r="P40" s="78"/>
+      <c r="M40" s="75"/>
+      <c r="N40" s="75"/>
+      <c r="O40" s="75"/>
+      <c r="P40" s="76"/>
       <c r="Q40" s="98"/>
       <c r="R40" s="99"/>
       <c r="S40" s="99"/>
@@ -3996,42 +3980,42 @@
       <c r="AH40" s="99"/>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A41" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="62"/>
-      <c r="R41" s="62"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="62"/>
-      <c r="AB41" s="62"/>
-      <c r="AC41" s="62"/>
-      <c r="AD41" s="62"/>
-      <c r="AE41" s="62"/>
-      <c r="AF41" s="62"/>
-      <c r="AG41" s="62"/>
-      <c r="AH41" s="62"/>
+      <c r="A41" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="60"/>
+      <c r="M41" s="60"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
+      <c r="S41" s="60"/>
+      <c r="T41" s="60"/>
+      <c r="U41" s="60"/>
+      <c r="V41" s="60"/>
+      <c r="W41" s="60"/>
+      <c r="X41" s="60"/>
+      <c r="Y41" s="60"/>
+      <c r="Z41" s="60"/>
+      <c r="AA41" s="60"/>
+      <c r="AB41" s="60"/>
+      <c r="AC41" s="60"/>
+      <c r="AD41" s="60"/>
+      <c r="AE41" s="60"/>
+      <c r="AF41" s="60"/>
+      <c r="AG41" s="60"/>
+      <c r="AH41" s="60"/>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="97"/>
@@ -4251,7 +4235,7 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="100" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B48" s="101"/>
       <c r="C48" s="101"/>
@@ -4289,7 +4273,7 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="104"/>
       <c r="C49" s="104"/>
@@ -4303,7 +4287,7 @@
       <c r="K49" s="104"/>
       <c r="L49" s="105"/>
       <c r="M49" s="103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N49" s="104"/>
       <c r="O49" s="104"/>
@@ -4316,7 +4300,7 @@
       <c r="V49" s="104"/>
       <c r="W49" s="105"/>
       <c r="X49" s="103" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Y49" s="104"/>
       <c r="Z49" s="104"/>
@@ -4331,7 +4315,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B50" s="112"/>
       <c r="C50" s="112"/>
@@ -4345,7 +4329,7 @@
       <c r="K50" s="112"/>
       <c r="L50" s="113"/>
       <c r="M50" s="111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N50" s="112"/>
       <c r="O50" s="112"/>
@@ -4358,7 +4342,7 @@
       <c r="V50" s="112"/>
       <c r="W50" s="113"/>
       <c r="X50" s="111" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y50" s="112"/>
       <c r="Z50" s="112"/>
@@ -4409,7 +4393,7 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B52" s="109"/>
       <c r="C52" s="109"/>
@@ -4423,7 +4407,7 @@
       <c r="K52" s="109"/>
       <c r="L52" s="110"/>
       <c r="M52" s="108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N52" s="109"/>
       <c r="O52" s="109"/>
@@ -4436,7 +4420,7 @@
       <c r="V52" s="109"/>
       <c r="W52" s="110"/>
       <c r="X52" s="108" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y52" s="109"/>
       <c r="Z52" s="109"/>
@@ -4451,7 +4435,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="109"/>
       <c r="C53" s="109"/>
@@ -4465,7 +4449,7 @@
       <c r="K53" s="109"/>
       <c r="L53" s="110"/>
       <c r="M53" s="108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N53" s="109"/>
       <c r="O53" s="109"/>
@@ -4478,7 +4462,7 @@
       <c r="V53" s="109"/>
       <c r="W53" s="110"/>
       <c r="X53" s="108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Y53" s="109"/>
       <c r="Z53" s="109"/>
@@ -4493,7 +4477,7 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" s="106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" s="106"/>
       <c r="C54" s="106"/>
@@ -4507,7 +4491,7 @@
       <c r="K54" s="106"/>
       <c r="L54" s="107"/>
       <c r="M54" s="106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N54" s="106"/>
       <c r="O54" s="106"/>
@@ -4520,7 +4504,7 @@
       <c r="V54" s="106"/>
       <c r="W54" s="107"/>
       <c r="X54" s="106" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Y54" s="106"/>
       <c r="Z54" s="106"/>
@@ -4819,7 +4803,8 @@
     <mergeCell ref="O5:AH5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormM.xlsx
+++ b/RAMS/Web/RAMMS.Web.UI/wwwroot/Templates/FormM.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="142">
   <si>
     <t>CONTRACT NO: PWD/HO/B130/2019</t>
   </si>
@@ -211,9 +211,6 @@
     <t>A8</t>
   </si>
   <si>
-    <t>Others:</t>
-  </si>
-  <si>
     <t>F5</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
   </si>
   <si>
     <t>G10</t>
-  </si>
-  <si>
-    <t>Others: (Others Plastic Barrier)</t>
   </si>
   <si>
     <t>Overall</t>
@@ -1120,7 +1114,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1146,12 +1140,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1176,6 +1164,180 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1191,6 +1353,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1263,203 +1443,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1499,7 +1490,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9B56624C-1233-49D2-9CB9-545A0C2A2FFB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B56624C-1233-49D2-9CB9-545A0C2A2FFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1540,7 @@
         <xdr:cNvPr id="9" name="TextBox 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8E7F6AEB-11BF-401D-B563-707E8E21283D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E7F6AEB-11BF-401D-B563-707E8E21283D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1619,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B55EC58-4E85-4A3D-A28F-DF4AB162F35E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B55EC58-4E85-4A3D-A28F-DF4AB162F35E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2045,7 +2036,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2067,368 +2058,368 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="30" t="s">
+      <c r="A1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="31"/>
-      <c r="AG1" s="31"/>
-      <c r="AH1" s="32"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="93"/>
+      <c r="Q1" s="93"/>
+      <c r="R1" s="93"/>
+      <c r="S1" s="93"/>
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="93"/>
+      <c r="Z1" s="93"/>
+      <c r="AA1" s="93"/>
+      <c r="AB1" s="93"/>
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="94"/>
     </row>
     <row r="2" spans="1:34" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="33" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="35"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
+      <c r="W2" s="96"/>
+      <c r="X2" s="96"/>
+      <c r="Y2" s="96"/>
+      <c r="Z2" s="96"/>
+      <c r="AA2" s="96"/>
+      <c r="AB2" s="96"/>
+      <c r="AC2" s="96"/>
+      <c r="AD2" s="96"/>
+      <c r="AE2" s="96"/>
+      <c r="AF2" s="96"/>
+      <c r="AG2" s="96"/>
+      <c r="AH2" s="97"/>
     </row>
     <row r="3" spans="1:34" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="36" t="s">
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
-      <c r="AD3" s="37"/>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="38"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="99"/>
+      <c r="L3" s="99"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
+      <c r="V3" s="99"/>
+      <c r="W3" s="99"/>
+      <c r="X3" s="99"/>
+      <c r="Y3" s="99"/>
+      <c r="Z3" s="99"/>
+      <c r="AA3" s="99"/>
+      <c r="AB3" s="99"/>
+      <c r="AC3" s="99"/>
+      <c r="AD3" s="99"/>
+      <c r="AE3" s="99"/>
+      <c r="AF3" s="99"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="100"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="42" t="s">
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+      <c r="G4" s="103"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="103"/>
+      <c r="J4" s="103"/>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="104" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="43"/>
-      <c r="Q4" s="43"/>
-      <c r="R4" s="43"/>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="43"/>
-      <c r="Y4" s="44" t="s">
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="105"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
+      <c r="S4" s="105"/>
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="Z4" s="45"/>
-      <c r="AA4" s="45"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AG4" s="46"/>
-      <c r="AH4" s="47"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="108"/>
+      <c r="AF4" s="108"/>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="109"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22" t="s">
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="49"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="79"/>
+      <c r="R5" s="79"/>
+      <c r="S5" s="79"/>
+      <c r="T5" s="79"/>
+      <c r="U5" s="79"/>
+      <c r="V5" s="79"/>
+      <c r="W5" s="79"/>
+      <c r="X5" s="79"/>
+      <c r="Y5" s="79"/>
+      <c r="Z5" s="79"/>
+      <c r="AA5" s="79"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="80"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="22" t="s">
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="48" t="s">
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="49"/>
+      <c r="U6" s="77"/>
+      <c r="V6" s="77"/>
+      <c r="W6" s="77"/>
+      <c r="X6" s="77"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="79"/>
+      <c r="AH6" s="80"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22" t="s">
+      <c r="B7" s="76"/>
+      <c r="C7" s="76"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-      <c r="AB7" s="23"/>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="23"/>
-      <c r="AE7" s="23"/>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="23"/>
-      <c r="AH7" s="49"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="79"/>
+      <c r="P7" s="79"/>
+      <c r="Q7" s="79"/>
+      <c r="R7" s="79"/>
+      <c r="S7" s="79"/>
+      <c r="T7" s="79"/>
+      <c r="U7" s="79"/>
+      <c r="V7" s="79"/>
+      <c r="W7" s="79"/>
+      <c r="X7" s="79"/>
+      <c r="Y7" s="79"/>
+      <c r="Z7" s="79"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="79"/>
+      <c r="AC7" s="79"/>
+      <c r="AD7" s="79"/>
+      <c r="AE7" s="79"/>
+      <c r="AF7" s="79"/>
+      <c r="AG7" s="79"/>
+      <c r="AH7" s="80"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="13" t="s">
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="22" t="s">
+      <c r="H8" s="81"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="48" t="s">
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="83"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
-      <c r="AB8" s="21"/>
-      <c r="AC8" s="21"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="21"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="21"/>
-      <c r="AH8" s="53"/>
+      <c r="U8" s="77"/>
+      <c r="V8" s="77"/>
+      <c r="W8" s="77"/>
+      <c r="X8" s="77"/>
+      <c r="Y8" s="77"/>
+      <c r="Z8" s="77"/>
+      <c r="AA8" s="77"/>
+      <c r="AB8" s="77"/>
+      <c r="AC8" s="77"/>
+      <c r="AD8" s="77"/>
+      <c r="AE8" s="77"/>
+      <c r="AF8" s="77"/>
+      <c r="AG8" s="77"/>
+      <c r="AH8" s="85"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="57" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="56" t="s">
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="71"/>
+      <c r="P9" s="71"/>
+      <c r="Q9" s="71"/>
+      <c r="R9" s="71"/>
+      <c r="S9" s="71"/>
+      <c r="T9" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="56"/>
-      <c r="AB9" s="56"/>
-      <c r="AC9" s="56"/>
-      <c r="AD9" s="56"/>
-      <c r="AE9" s="56"/>
-      <c r="AF9" s="56"/>
-      <c r="AG9" s="56"/>
-      <c r="AH9" s="58"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="74"/>
     </row>
     <row r="10" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
@@ -2469,2318 +2460,2052 @@
       <c r="AH10" s="2"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="61" t="s">
+      <c r="B11" s="39"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="61"/>
-      <c r="L11" s="14" t="s">
+      <c r="K11" s="42"/>
+      <c r="L11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="61" t="s">
+      <c r="M11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61" t="s">
+      <c r="N11" s="42"/>
+      <c r="O11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="59" t="s">
+      <c r="P11" s="43"/>
+      <c r="Q11" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="R11" s="60"/>
-      <c r="S11" s="60"/>
-      <c r="T11" s="60"/>
-      <c r="U11" s="60"/>
-      <c r="V11" s="60"/>
-      <c r="W11" s="60"/>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="60"/>
-      <c r="Z11" s="60"/>
-      <c r="AA11" s="60"/>
-      <c r="AB11" s="61" t="s">
+      <c r="R11" s="39"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="39"/>
+      <c r="U11" s="39"/>
+      <c r="V11" s="39"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="39"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="39"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AC11" s="61"/>
-      <c r="AD11" s="14" t="s">
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="AE11" s="61" t="s">
+      <c r="AE11" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="AF11" s="61"/>
-      <c r="AG11" s="61" t="s">
+      <c r="AF11" s="42"/>
+      <c r="AG11" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AH11" s="62"/>
+      <c r="AH11" s="43"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="64" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="64"/>
+      <c r="K12" s="56"/>
       <c r="L12" s="4">
         <v>5</v>
       </c>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="66"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="58"/>
       <c r="Q12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R12" s="63" t="s">
+      <c r="R12" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="S12" s="63"/>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="63"/>
-      <c r="Z12" s="63"/>
-      <c r="AA12" s="63"/>
-      <c r="AB12" s="64" t="s">
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="55"/>
+      <c r="AB12" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AC12" s="64"/>
+      <c r="AC12" s="56"/>
       <c r="AD12" s="4">
         <v>15</v>
       </c>
-      <c r="AE12" s="67"/>
-      <c r="AF12" s="67"/>
-      <c r="AG12" s="67"/>
-      <c r="AH12" s="68"/>
+      <c r="AE12" s="68"/>
+      <c r="AF12" s="68"/>
+      <c r="AG12" s="68"/>
+      <c r="AH12" s="69"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70" t="s">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="70"/>
+      <c r="K13" s="34"/>
       <c r="L13" s="6">
         <v>5</v>
       </c>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="72"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="32"/>
       <c r="Q13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="R13" s="73" t="s">
+      <c r="R13" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="74" t="s">
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
+      <c r="AB13" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AC13" s="74"/>
+      <c r="AC13" s="66"/>
       <c r="AD13" s="8">
         <v>15</v>
       </c>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="75"/>
-      <c r="AH13" s="76"/>
+      <c r="AE13" s="36"/>
+      <c r="AF13" s="36"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="37"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="69"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70" t="s">
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="70"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="6">
         <v>5</v>
       </c>
-      <c r="M14" s="71"/>
-      <c r="N14" s="71"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="79" t="s">
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R14" s="80"/>
-      <c r="S14" s="80"/>
-      <c r="T14" s="80"/>
-      <c r="U14" s="80"/>
-      <c r="V14" s="80"/>
-      <c r="W14" s="80"/>
-      <c r="X14" s="80"/>
-      <c r="Y14" s="80"/>
-      <c r="Z14" s="80"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="77" t="s">
+      <c r="R14" s="60"/>
+      <c r="S14" s="60"/>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="60"/>
+      <c r="Z14" s="60"/>
+      <c r="AA14" s="60"/>
+      <c r="AB14" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AC14" s="77"/>
-      <c r="AD14" s="15" t="s">
+      <c r="AC14" s="61"/>
+      <c r="AD14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AE14" s="77"/>
-      <c r="AF14" s="77"/>
-      <c r="AG14" s="77"/>
-      <c r="AH14" s="78"/>
+      <c r="AE14" s="61"/>
+      <c r="AF14" s="61"/>
+      <c r="AG14" s="61"/>
+      <c r="AH14" s="62"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70" t="s">
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="70"/>
+      <c r="K15" s="34"/>
       <c r="L15" s="6">
         <v>5</v>
       </c>
-      <c r="M15" s="71"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="72"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
       <c r="Q15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="R15" s="63" t="s">
+      <c r="R15" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="S15" s="63"/>
-      <c r="T15" s="63"/>
-      <c r="U15" s="63"/>
-      <c r="V15" s="63"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="64" t="s">
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
+      <c r="V15" s="55"/>
+      <c r="W15" s="55"/>
+      <c r="X15" s="55"/>
+      <c r="Y15" s="55"/>
+      <c r="Z15" s="55"/>
+      <c r="AA15" s="55"/>
+      <c r="AB15" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="AC15" s="64"/>
+      <c r="AC15" s="56"/>
       <c r="AD15" s="4">
         <v>20</v>
       </c>
-      <c r="AE15" s="65"/>
-      <c r="AF15" s="65"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="66"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="58"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="70"/>
+      <c r="K16" s="34"/>
       <c r="L16" s="6">
         <v>5</v>
       </c>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="72"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
       <c r="Q16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="R16" s="69" t="s">
+      <c r="R16" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="70" t="s">
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AC16" s="70"/>
+      <c r="AC16" s="34"/>
       <c r="AD16" s="6">
         <v>10</v>
       </c>
-      <c r="AE16" s="71"/>
-      <c r="AF16" s="71"/>
-      <c r="AG16" s="71"/>
-      <c r="AH16" s="72"/>
+      <c r="AE16" s="31"/>
+      <c r="AF16" s="31"/>
+      <c r="AG16" s="31"/>
+      <c r="AH16" s="32"/>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70" t="s">
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="70"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="6">
         <v>5</v>
       </c>
-      <c r="M17" s="71"/>
-      <c r="N17" s="71"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="72"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32"/>
       <c r="Q17" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="R17" s="69" t="s">
+      <c r="R17" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="70" t="s">
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AC17" s="70"/>
+      <c r="AC17" s="34"/>
       <c r="AD17" s="6">
         <v>25</v>
       </c>
-      <c r="AE17" s="71"/>
-      <c r="AF17" s="71"/>
-      <c r="AG17" s="71"/>
-      <c r="AH17" s="72"/>
+      <c r="AE17" s="31"/>
+      <c r="AF17" s="31"/>
+      <c r="AG17" s="31"/>
+      <c r="AH17" s="32"/>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="69" t="s">
+      <c r="B18" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70" t="s">
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="K18" s="70"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="6">
         <v>5</v>
       </c>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="72"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
       <c r="Q18" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="69" t="s">
+      <c r="R18" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="69"/>
-      <c r="X18" s="69"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="70" t="s">
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AC18" s="70"/>
+      <c r="AC18" s="34"/>
       <c r="AD18" s="6">
         <v>15</v>
       </c>
-      <c r="AE18" s="71"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="71"/>
-      <c r="AH18" s="72"/>
+      <c r="AE18" s="31"/>
+      <c r="AF18" s="31"/>
+      <c r="AG18" s="31"/>
+      <c r="AH18" s="32"/>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="82"/>
-      <c r="J19" s="74" t="s">
+      <c r="B19" s="110"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="111"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="112"/>
+      <c r="J19" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="K19" s="74"/>
+      <c r="K19" s="66"/>
       <c r="L19" s="8">
         <v>5</v>
       </c>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="76"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="37"/>
       <c r="Q19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="R19" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="R19" s="69" t="s">
-        <v>60</v>
-      </c>
-      <c r="S19" s="69"/>
-      <c r="T19" s="69"/>
-      <c r="U19" s="69"/>
-      <c r="V19" s="69"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="70" t="s">
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
+      <c r="X19" s="33"/>
+      <c r="Y19" s="33"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AC19" s="70"/>
+      <c r="AC19" s="34"/>
       <c r="AD19" s="6">
         <v>25</v>
       </c>
-      <c r="AE19" s="71"/>
-      <c r="AF19" s="71"/>
-      <c r="AG19" s="71"/>
-      <c r="AH19" s="72"/>
+      <c r="AE19" s="31"/>
+      <c r="AF19" s="31"/>
+      <c r="AG19" s="31"/>
+      <c r="AH19" s="32"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A20" s="79" t="s">
+      <c r="A20" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="61"/>
+      <c r="L20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="77"/>
-      <c r="L20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M20" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="77"/>
-      <c r="O20" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="5" t="s">
+      <c r="R20" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="R20" s="69" t="s">
-        <v>63</v>
-      </c>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="69"/>
-      <c r="AA20" s="69"/>
-      <c r="AB20" s="70" t="s">
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
+      <c r="X20" s="33"/>
+      <c r="Y20" s="33"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="AC20" s="70"/>
+      <c r="AC20" s="34"/>
       <c r="AD20" s="6">
         <v>25</v>
       </c>
-      <c r="AE20" s="71"/>
-      <c r="AF20" s="71"/>
-      <c r="AG20" s="71"/>
-      <c r="AH20" s="72"/>
+      <c r="AE20" s="31"/>
+      <c r="AF20" s="31"/>
+      <c r="AG20" s="31"/>
+      <c r="AH20" s="32"/>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="67" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="64" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="67"/>
+      <c r="J21" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="64"/>
+      <c r="K21" s="56"/>
       <c r="L21" s="4">
         <v>5</v>
       </c>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="66"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="58"/>
       <c r="Q21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="R21" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="R21" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="74" t="s">
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="65"/>
+      <c r="X21" s="65"/>
+      <c r="Y21" s="65"/>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="65"/>
+      <c r="AB21" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="AC21" s="74"/>
+      <c r="AC21" s="66"/>
       <c r="AD21" s="8">
         <v>15</v>
       </c>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="76"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="37"/>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="84" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="70" t="s">
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K22" s="70"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="6">
         <v>5</v>
       </c>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="R22" s="80"/>
-      <c r="S22" s="80"/>
-      <c r="T22" s="80"/>
-      <c r="U22" s="80"/>
-      <c r="V22" s="80"/>
-      <c r="W22" s="80"/>
-      <c r="X22" s="80"/>
-      <c r="Y22" s="80"/>
-      <c r="Z22" s="80"/>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="77" t="s">
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="R22" s="60"/>
+      <c r="S22" s="60"/>
+      <c r="T22" s="60"/>
+      <c r="U22" s="60"/>
+      <c r="V22" s="60"/>
+      <c r="W22" s="60"/>
+      <c r="X22" s="60"/>
+      <c r="Y22" s="60"/>
+      <c r="Z22" s="60"/>
+      <c r="AA22" s="60"/>
+      <c r="AB22" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AC22" s="77"/>
-      <c r="AD22" s="15" t="s">
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AE22" s="77" t="s">
+      <c r="AE22" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="AF22" s="77"/>
-      <c r="AG22" s="77" t="s">
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="AH22" s="78"/>
+      <c r="AH22" s="62"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="69"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70" t="s">
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K23" s="70"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="6">
         <v>5</v>
       </c>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="72"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="32"/>
       <c r="Q23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R23" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="R23" s="63" t="s">
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="55"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="55"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="S23" s="63"/>
-      <c r="T23" s="63"/>
-      <c r="U23" s="63"/>
-      <c r="V23" s="63"/>
-      <c r="W23" s="63"/>
-      <c r="X23" s="63"/>
-      <c r="Y23" s="63"/>
-      <c r="Z23" s="63"/>
-      <c r="AA23" s="63"/>
-      <c r="AB23" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC23" s="64"/>
+      <c r="AC23" s="56"/>
       <c r="AD23" s="4">
         <v>5</v>
       </c>
-      <c r="AE23" s="65"/>
-      <c r="AF23" s="65"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="66"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="58"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70" t="s">
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="70"/>
+      <c r="K24" s="34"/>
       <c r="L24" s="6">
         <v>5</v>
       </c>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="72"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
       <c r="Q24" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R24" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="R24" s="69" t="s">
-        <v>79</v>
-      </c>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="69"/>
-      <c r="AB24" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC24" s="70"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC24" s="34"/>
       <c r="AD24" s="6">
         <v>5</v>
       </c>
-      <c r="AE24" s="71"/>
-      <c r="AF24" s="71"/>
-      <c r="AG24" s="71"/>
-      <c r="AH24" s="72"/>
+      <c r="AE24" s="31"/>
+      <c r="AF24" s="31"/>
+      <c r="AG24" s="31"/>
+      <c r="AH24" s="32"/>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="69"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70" t="s">
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K25" s="70"/>
+      <c r="K25" s="34"/>
       <c r="L25" s="6">
         <v>5</v>
       </c>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="72"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="32"/>
       <c r="Q25" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R25" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="R25" s="69" t="s">
-        <v>83</v>
-      </c>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC25" s="70"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC25" s="34"/>
       <c r="AD25" s="6">
         <v>5</v>
       </c>
-      <c r="AE25" s="71"/>
-      <c r="AF25" s="71"/>
-      <c r="AG25" s="71"/>
-      <c r="AH25" s="72"/>
+      <c r="AE25" s="31"/>
+      <c r="AF25" s="31"/>
+      <c r="AG25" s="31"/>
+      <c r="AH25" s="32"/>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="69" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="69"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="70" t="s">
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K26" s="70"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="6">
         <v>5</v>
       </c>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="72"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
       <c r="Q26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="R26" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="R26" s="69" t="s">
-        <v>87</v>
-      </c>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
-      <c r="U26" s="69"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="69"/>
-      <c r="X26" s="69"/>
-      <c r="Y26" s="69"/>
-      <c r="Z26" s="69"/>
-      <c r="AA26" s="69"/>
-      <c r="AB26" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC26" s="70"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC26" s="34"/>
       <c r="AD26" s="6">
         <v>5</v>
       </c>
-      <c r="AE26" s="71"/>
-      <c r="AF26" s="71"/>
-      <c r="AG26" s="71"/>
-      <c r="AH26" s="72"/>
+      <c r="AE26" s="31"/>
+      <c r="AF26" s="31"/>
+      <c r="AG26" s="31"/>
+      <c r="AH26" s="32"/>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B27" s="69" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="70" t="s">
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="K27" s="70"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="6">
         <v>5</v>
       </c>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="72"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="32"/>
       <c r="Q27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="R27" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="R27" s="69" t="s">
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
+      <c r="X27" s="33"/>
+      <c r="Y27" s="33"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="69"/>
-      <c r="X27" s="69"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC27" s="70"/>
+      <c r="AC27" s="34"/>
       <c r="AD27" s="6">
         <v>10</v>
       </c>
-      <c r="AE27" s="71"/>
-      <c r="AF27" s="71"/>
-      <c r="AG27" s="71"/>
-      <c r="AH27" s="72"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="32"/>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="73" t="s">
-        <v>93</v>
-      </c>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="73"/>
-      <c r="J28" s="74" t="s">
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="74"/>
+      <c r="K28" s="66"/>
       <c r="L28" s="8">
         <v>5</v>
       </c>
-      <c r="M28" s="75"/>
-      <c r="N28" s="75"/>
-      <c r="O28" s="75"/>
-      <c r="P28" s="76"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="37"/>
       <c r="Q28" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R28" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="R28" s="69" t="s">
-        <v>95</v>
-      </c>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="70" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC28" s="70"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
+      <c r="X28" s="33"/>
+      <c r="Y28" s="33"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC28" s="34"/>
       <c r="AD28" s="6">
         <v>5</v>
       </c>
-      <c r="AE28" s="71"/>
-      <c r="AF28" s="71"/>
-      <c r="AG28" s="71"/>
-      <c r="AH28" s="72"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="32"/>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A29" s="79" t="s">
+      <c r="A29" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="61"/>
+      <c r="L29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M29" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N29" s="61"/>
+      <c r="O29" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K29" s="77"/>
-      <c r="L29" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M29" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="N29" s="77"/>
-      <c r="O29" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="P29" s="78"/>
-      <c r="Q29" s="5" t="s">
+      <c r="R29" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="R29" s="69" t="s">
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+      <c r="X29" s="33"/>
+      <c r="Y29" s="33"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="69"/>
-      <c r="X29" s="69"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC29" s="70"/>
+      <c r="AC29" s="34"/>
       <c r="AD29" s="6">
         <v>10</v>
       </c>
-      <c r="AE29" s="71"/>
-      <c r="AF29" s="71"/>
-      <c r="AG29" s="71"/>
-      <c r="AH29" s="72"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="31"/>
+      <c r="AH29" s="32"/>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="83" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="83"/>
-      <c r="D30" s="83"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="K30" s="64"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="56"/>
       <c r="L30" s="4">
         <v>10</v>
       </c>
-      <c r="M30" s="65"/>
-      <c r="N30" s="65"/>
-      <c r="O30" s="65"/>
-      <c r="P30" s="66"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="58"/>
       <c r="Q30" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="R30" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="R30" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
-      <c r="U30" s="69"/>
-      <c r="V30" s="69"/>
-      <c r="W30" s="69"/>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="69"/>
-      <c r="Z30" s="69"/>
-      <c r="AA30" s="69"/>
-      <c r="AB30" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC30" s="70"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+      <c r="X30" s="33"/>
+      <c r="Y30" s="33"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC30" s="34"/>
       <c r="AD30" s="6">
         <v>10</v>
       </c>
-      <c r="AE30" s="71"/>
-      <c r="AF30" s="71"/>
-      <c r="AG30" s="71"/>
-      <c r="AH30" s="72"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="31"/>
+      <c r="AH30" s="32"/>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="73"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="73"/>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
-      <c r="I31" s="73"/>
-      <c r="J31" s="74" t="s">
-        <v>75</v>
-      </c>
-      <c r="K31" s="74"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="66"/>
       <c r="L31" s="8">
         <v>10</v>
       </c>
-      <c r="M31" s="75"/>
-      <c r="N31" s="75"/>
-      <c r="O31" s="75"/>
-      <c r="P31" s="76"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="37"/>
       <c r="Q31" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="R31" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="R31" s="84" t="s">
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="35"/>
+      <c r="AB31" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="S31" s="84"/>
-      <c r="T31" s="84"/>
-      <c r="U31" s="84"/>
-      <c r="V31" s="84"/>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="84"/>
-      <c r="AA31" s="84"/>
-      <c r="AB31" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="AC31" s="70"/>
+      <c r="AC31" s="34"/>
       <c r="AD31" s="6">
         <v>10</v>
       </c>
-      <c r="AE31" s="71"/>
-      <c r="AF31" s="71"/>
-      <c r="AG31" s="71"/>
-      <c r="AH31" s="72"/>
+      <c r="AE31" s="31"/>
+      <c r="AF31" s="31"/>
+      <c r="AG31" s="31"/>
+      <c r="AH31" s="32"/>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A32" s="79" t="s">
+      <c r="A32" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="61"/>
+      <c r="L32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M32" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="61"/>
+      <c r="O32" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="77" t="s">
-        <v>22</v>
-      </c>
-      <c r="K32" s="77"/>
-      <c r="L32" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M32" s="77" t="s">
-        <v>24</v>
-      </c>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="P32" s="78"/>
-      <c r="Q32" s="11" t="s">
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="R32" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="S32" s="87"/>
-      <c r="T32" s="87"/>
-      <c r="U32" s="87"/>
-      <c r="V32" s="87"/>
-      <c r="W32" s="87"/>
-      <c r="X32" s="87"/>
-      <c r="Y32" s="87"/>
-      <c r="Z32" s="87"/>
-      <c r="AA32" s="87"/>
-      <c r="AB32" s="88" t="s">
-        <v>112</v>
-      </c>
-      <c r="AC32" s="88"/>
-      <c r="AD32" s="12">
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="10">
         <v>5</v>
       </c>
-      <c r="AE32" s="85"/>
-      <c r="AF32" s="85"/>
-      <c r="AG32" s="85"/>
-      <c r="AH32" s="86"/>
+      <c r="AE32" s="53"/>
+      <c r="AF32" s="53"/>
+      <c r="AG32" s="53"/>
+      <c r="AH32" s="54"/>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="B33" s="63" t="s">
-        <v>114</v>
-      </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
-      <c r="F33" s="63"/>
-      <c r="G33" s="63"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
-      <c r="J33" s="64" t="s">
-        <v>115</v>
-      </c>
-      <c r="K33" s="64"/>
+      <c r="K33" s="56"/>
       <c r="L33" s="4">
         <v>10</v>
       </c>
-      <c r="M33" s="65"/>
-      <c r="N33" s="65"/>
-      <c r="O33" s="65"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="59" t="s">
-        <v>116</v>
-      </c>
-      <c r="R33" s="60"/>
-      <c r="S33" s="60"/>
-      <c r="T33" s="60"/>
-      <c r="U33" s="60"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="60"/>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="60"/>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="61"/>
-      <c r="AC33" s="61"/>
-      <c r="AD33" s="14"/>
-      <c r="AE33" s="61"/>
-      <c r="AF33" s="61"/>
-      <c r="AG33" s="61"/>
-      <c r="AH33" s="62"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="R33" s="39"/>
+      <c r="S33" s="39"/>
+      <c r="T33" s="39"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="39"/>
+      <c r="W33" s="39"/>
+      <c r="X33" s="39"/>
+      <c r="Y33" s="39"/>
+      <c r="Z33" s="39"/>
+      <c r="AA33" s="39"/>
+      <c r="AB33" s="42"/>
+      <c r="AC33" s="42"/>
+      <c r="AD33" s="12"/>
+      <c r="AE33" s="42"/>
+      <c r="AF33" s="42"/>
+      <c r="AG33" s="42"/>
+      <c r="AH33" s="43"/>
     </row>
     <row r="34" spans="1:34" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B34" s="69" t="s">
-        <v>118</v>
-      </c>
-      <c r="C34" s="69"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="K34" s="70"/>
+      <c r="B34" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="34"/>
       <c r="L34" s="6">
         <v>10</v>
       </c>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="72"/>
-      <c r="Q34" s="89"/>
-      <c r="R34" s="90"/>
-      <c r="S34" s="90"/>
-      <c r="T34" s="90"/>
-      <c r="V34" s="94"/>
-      <c r="W34" s="94"/>
-      <c r="X34" s="94"/>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="94"/>
-      <c r="AE34" s="94"/>
-      <c r="AF34" s="94"/>
-      <c r="AG34" s="94"/>
-      <c r="AH34" s="95"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="32"/>
+      <c r="Q34" s="46"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51"/>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51"/>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51"/>
+      <c r="AB34" s="51"/>
+      <c r="AC34" s="51"/>
+      <c r="AD34" s="51"/>
+      <c r="AE34" s="51"/>
+      <c r="AF34" s="51"/>
+      <c r="AG34" s="51"/>
+      <c r="AH34" s="52"/>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="69" t="s">
-        <v>120</v>
-      </c>
-      <c r="C35" s="69"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="69"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="K35" s="70"/>
+        <v>117</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K35" s="34"/>
       <c r="L35" s="6">
         <v>15</v>
       </c>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="72"/>
-      <c r="Q35" s="91" t="s">
-        <v>121</v>
-      </c>
-      <c r="R35" s="92"/>
-      <c r="S35" s="92"/>
-      <c r="T35" s="92"/>
-      <c r="U35" s="92"/>
-      <c r="V35" s="92"/>
-      <c r="W35" s="92"/>
-      <c r="X35" s="92"/>
-      <c r="Y35" s="92"/>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="92"/>
-      <c r="AB35" s="92"/>
-      <c r="AC35" s="92"/>
-      <c r="AD35" s="92"/>
-      <c r="AE35" s="92"/>
-      <c r="AF35" s="92"/>
-      <c r="AG35" s="92"/>
-      <c r="AH35" s="93"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="32"/>
+      <c r="Q35" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="R35" s="49"/>
+      <c r="S35" s="49"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="50"/>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="69" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="69"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="K36" s="70"/>
+        <v>120</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K36" s="34"/>
       <c r="L36" s="6">
         <v>10</v>
       </c>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="72"/>
-      <c r="Q36" s="59" t="s">
-        <v>124</v>
-      </c>
-      <c r="R36" s="60"/>
-      <c r="S36" s="60"/>
-      <c r="T36" s="60"/>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="61"/>
-      <c r="AC36" s="61"/>
-      <c r="AD36" s="14"/>
-      <c r="AE36" s="61"/>
-      <c r="AF36" s="61"/>
-      <c r="AG36" s="61"/>
-      <c r="AH36" s="62"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="32"/>
+      <c r="Q36" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="39"/>
+      <c r="U36" s="39"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="12"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AH36" s="43"/>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="69" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="K37" s="70"/>
+        <v>123</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K37" s="34"/>
       <c r="L37" s="6">
         <v>5</v>
       </c>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="72"/>
-      <c r="Q37" s="96"/>
-      <c r="R37" s="97"/>
-      <c r="S37" s="97"/>
-      <c r="T37" s="97"/>
-      <c r="U37" s="97"/>
-      <c r="V37" s="97"/>
-      <c r="W37" s="97"/>
-      <c r="X37" s="97"/>
-      <c r="Y37" s="97"/>
-      <c r="Z37" s="97"/>
-      <c r="AA37" s="97"/>
-      <c r="AB37" s="97"/>
-      <c r="AC37" s="97"/>
-      <c r="AD37" s="97"/>
-      <c r="AE37" s="97"/>
-      <c r="AF37" s="97"/>
-      <c r="AG37" s="97"/>
-      <c r="AH37" s="97"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="32"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+      <c r="W37" s="40"/>
+      <c r="X37" s="40"/>
+      <c r="Y37" s="40"/>
+      <c r="Z37" s="40"/>
+      <c r="AA37" s="40"/>
+      <c r="AB37" s="40"/>
+      <c r="AC37" s="40"/>
+      <c r="AD37" s="40"/>
+      <c r="AE37" s="40"/>
+      <c r="AF37" s="40"/>
+      <c r="AG37" s="40"/>
+      <c r="AH37" s="40"/>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B38" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="K38" s="70"/>
+        <v>125</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="K38" s="34"/>
       <c r="L38" s="6">
         <v>5</v>
       </c>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="96"/>
-      <c r="R38" s="97"/>
-      <c r="S38" s="97"/>
-      <c r="T38" s="97"/>
-      <c r="U38" s="97"/>
-      <c r="V38" s="97"/>
-      <c r="W38" s="97"/>
-      <c r="X38" s="97"/>
-      <c r="Y38" s="97"/>
-      <c r="Z38" s="97"/>
-      <c r="AA38" s="97"/>
-      <c r="AB38" s="97"/>
-      <c r="AC38" s="97"/>
-      <c r="AD38" s="97"/>
-      <c r="AE38" s="97"/>
-      <c r="AF38" s="97"/>
-      <c r="AG38" s="97"/>
-      <c r="AH38" s="97"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="32"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+      <c r="W38" s="40"/>
+      <c r="X38" s="40"/>
+      <c r="Y38" s="40"/>
+      <c r="Z38" s="40"/>
+      <c r="AA38" s="40"/>
+      <c r="AB38" s="40"/>
+      <c r="AC38" s="40"/>
+      <c r="AD38" s="40"/>
+      <c r="AE38" s="40"/>
+      <c r="AF38" s="40"/>
+      <c r="AG38" s="40"/>
+      <c r="AH38" s="40"/>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="69" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="K39" s="70"/>
+      <c r="K39" s="34"/>
       <c r="L39" s="6">
         <v>5</v>
       </c>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="96"/>
-      <c r="R39" s="97"/>
-      <c r="S39" s="97"/>
-      <c r="T39" s="97"/>
-      <c r="U39" s="97"/>
-      <c r="V39" s="97"/>
-      <c r="W39" s="97"/>
-      <c r="X39" s="97"/>
-      <c r="Y39" s="97"/>
-      <c r="Z39" s="97"/>
-      <c r="AA39" s="97"/>
-      <c r="AB39" s="97"/>
-      <c r="AC39" s="97"/>
-      <c r="AD39" s="97"/>
-      <c r="AE39" s="97"/>
-      <c r="AF39" s="97"/>
-      <c r="AG39" s="97"/>
-      <c r="AH39" s="97"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="32"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+      <c r="W39" s="40"/>
+      <c r="X39" s="40"/>
+      <c r="Y39" s="40"/>
+      <c r="Z39" s="40"/>
+      <c r="AA39" s="40"/>
+      <c r="AB39" s="40"/>
+      <c r="AC39" s="40"/>
+      <c r="AD39" s="40"/>
+      <c r="AE39" s="40"/>
+      <c r="AF39" s="40"/>
+      <c r="AG39" s="40"/>
+      <c r="AH39" s="40"/>
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B40" s="84" t="s">
+      <c r="K40" s="34"/>
+      <c r="L40" s="10">
+        <v>5</v>
+      </c>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="45"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+      <c r="AA40" s="41"/>
+      <c r="AB40" s="41"/>
+      <c r="AC40" s="41"/>
+      <c r="AD40" s="41"/>
+      <c r="AE40" s="41"/>
+      <c r="AF40" s="41"/>
+      <c r="AG40" s="41"/>
+      <c r="AH40" s="41"/>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A41" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="C40" s="84"/>
-      <c r="D40" s="84"/>
-      <c r="E40" s="84"/>
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
-      <c r="J40" s="70" t="s">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+      <c r="M41" s="39"/>
+      <c r="N41" s="39"/>
+      <c r="O41" s="39"/>
+      <c r="P41" s="39"/>
+      <c r="Q41" s="39"/>
+      <c r="R41" s="39"/>
+      <c r="S41" s="39"/>
+      <c r="T41" s="39"/>
+      <c r="U41" s="39"/>
+      <c r="V41" s="39"/>
+      <c r="W41" s="39"/>
+      <c r="X41" s="39"/>
+      <c r="Y41" s="39"/>
+      <c r="Z41" s="39"/>
+      <c r="AA41" s="39"/>
+      <c r="AB41" s="39"/>
+      <c r="AC41" s="39"/>
+      <c r="AD41" s="39"/>
+      <c r="AE41" s="39"/>
+      <c r="AF41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AH41" s="39"/>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="40"/>
+      <c r="N42" s="40"/>
+      <c r="O42" s="40"/>
+      <c r="P42" s="40"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="40"/>
+      <c r="Y42" s="40"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
+      <c r="AE42" s="40"/>
+      <c r="AF42" s="40"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="40"/>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A43" s="40"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="40"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="40"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="40"/>
+      <c r="N43" s="40"/>
+      <c r="O43" s="40"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+      <c r="W43" s="40"/>
+      <c r="X43" s="40"/>
+      <c r="Y43" s="40"/>
+      <c r="Z43" s="40"/>
+      <c r="AA43" s="40"/>
+      <c r="AB43" s="40"/>
+      <c r="AC43" s="40"/>
+      <c r="AD43" s="40"/>
+      <c r="AE43" s="40"/>
+      <c r="AF43" s="40"/>
+      <c r="AG43" s="40"/>
+      <c r="AH43" s="40"/>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A44" s="40"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="40"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="40"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="40"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="40"/>
+      <c r="N44" s="40"/>
+      <c r="O44" s="40"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+      <c r="W44" s="40"/>
+      <c r="X44" s="40"/>
+      <c r="Y44" s="40"/>
+      <c r="Z44" s="40"/>
+      <c r="AA44" s="40"/>
+      <c r="AB44" s="40"/>
+      <c r="AC44" s="40"/>
+      <c r="AD44" s="40"/>
+      <c r="AE44" s="40"/>
+      <c r="AF44" s="40"/>
+      <c r="AG44" s="40"/>
+      <c r="AH44" s="40"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A45" s="40"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="40"/>
+      <c r="D45" s="40"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
+      <c r="AE45" s="40"/>
+      <c r="AF45" s="40"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="40"/>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="40"/>
+      <c r="N46" s="40"/>
+      <c r="O46" s="40"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+      <c r="W46" s="40"/>
+      <c r="X46" s="40"/>
+      <c r="Y46" s="40"/>
+      <c r="Z46" s="40"/>
+      <c r="AA46" s="40"/>
+      <c r="AB46" s="40"/>
+      <c r="AC46" s="40"/>
+      <c r="AD46" s="40"/>
+      <c r="AE46" s="40"/>
+      <c r="AF46" s="40"/>
+      <c r="AG46" s="40"/>
+      <c r="AH46" s="40"/>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+      <c r="AA47" s="41"/>
+      <c r="AB47" s="41"/>
+      <c r="AC47" s="41"/>
+      <c r="AD47" s="41"/>
+      <c r="AE47" s="41"/>
+      <c r="AF47" s="41"/>
+      <c r="AG47" s="41"/>
+      <c r="AH47" s="41"/>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A48" s="25" t="s">
         <v>134</v>
       </c>
-      <c r="K40" s="70"/>
-      <c r="L40" s="12">
-        <v>5</v>
-      </c>
-      <c r="M40" s="75"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="75"/>
-      <c r="P40" s="76"/>
-      <c r="Q40" s="98"/>
-      <c r="R40" s="99"/>
-      <c r="S40" s="99"/>
-      <c r="T40" s="99"/>
-      <c r="U40" s="99"/>
-      <c r="V40" s="99"/>
-      <c r="W40" s="99"/>
-      <c r="X40" s="99"/>
-      <c r="Y40" s="99"/>
-      <c r="Z40" s="99"/>
-      <c r="AA40" s="99"/>
-      <c r="AB40" s="99"/>
-      <c r="AC40" s="99"/>
-      <c r="AD40" s="99"/>
-      <c r="AE40" s="99"/>
-      <c r="AF40" s="99"/>
-      <c r="AG40" s="99"/>
-      <c r="AH40" s="99"/>
-    </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A41" s="59" t="s">
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
+      <c r="W48" s="26"/>
+      <c r="X48" s="26"/>
+      <c r="Y48" s="26"/>
+      <c r="Z48" s="26"/>
+      <c r="AA48" s="26"/>
+      <c r="AB48" s="26"/>
+      <c r="AC48" s="26"/>
+      <c r="AD48" s="26"/>
+      <c r="AE48" s="26"/>
+      <c r="AF48" s="26"/>
+      <c r="AG48" s="26"/>
+      <c r="AH48" s="27"/>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A49" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="60"/>
-      <c r="H41" s="60"/>
-      <c r="I41" s="60"/>
-      <c r="J41" s="60"/>
-      <c r="K41" s="60"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="60"/>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="60"/>
-      <c r="T41" s="60"/>
-      <c r="U41" s="60"/>
-      <c r="V41" s="60"/>
-      <c r="W41" s="60"/>
-      <c r="X41" s="60"/>
-      <c r="Y41" s="60"/>
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="60"/>
-      <c r="AB41" s="60"/>
-      <c r="AC41" s="60"/>
-      <c r="AD41" s="60"/>
-      <c r="AE41" s="60"/>
-      <c r="AF41" s="60"/>
-      <c r="AG41" s="60"/>
-      <c r="AH41" s="60"/>
-    </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A42" s="97"/>
-      <c r="B42" s="97"/>
-      <c r="C42" s="97"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="97"/>
-      <c r="F42" s="97"/>
-      <c r="G42" s="97"/>
-      <c r="H42" s="97"/>
-      <c r="I42" s="97"/>
-      <c r="J42" s="97"/>
-      <c r="K42" s="97"/>
-      <c r="L42" s="97"/>
-      <c r="M42" s="97"/>
-      <c r="N42" s="97"/>
-      <c r="O42" s="97"/>
-      <c r="P42" s="97"/>
-      <c r="Q42" s="97"/>
-      <c r="R42" s="97"/>
-      <c r="S42" s="97"/>
-      <c r="T42" s="97"/>
-      <c r="U42" s="97"/>
-      <c r="V42" s="97"/>
-      <c r="W42" s="97"/>
-      <c r="X42" s="97"/>
-      <c r="Y42" s="97"/>
-      <c r="Z42" s="97"/>
-      <c r="AA42" s="97"/>
-      <c r="AB42" s="97"/>
-      <c r="AC42" s="97"/>
-      <c r="AD42" s="97"/>
-      <c r="AE42" s="97"/>
-      <c r="AF42" s="97"/>
-      <c r="AG42" s="97"/>
-      <c r="AH42" s="97"/>
-    </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A43" s="97"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="97"/>
-      <c r="D43" s="97"/>
-      <c r="E43" s="97"/>
-      <c r="F43" s="97"/>
-      <c r="G43" s="97"/>
-      <c r="H43" s="97"/>
-      <c r="I43" s="97"/>
-      <c r="J43" s="97"/>
-      <c r="K43" s="97"/>
-      <c r="L43" s="97"/>
-      <c r="M43" s="97"/>
-      <c r="N43" s="97"/>
-      <c r="O43" s="97"/>
-      <c r="P43" s="97"/>
-      <c r="Q43" s="97"/>
-      <c r="R43" s="97"/>
-      <c r="S43" s="97"/>
-      <c r="T43" s="97"/>
-      <c r="U43" s="97"/>
-      <c r="V43" s="97"/>
-      <c r="W43" s="97"/>
-      <c r="X43" s="97"/>
-      <c r="Y43" s="97"/>
-      <c r="Z43" s="97"/>
-      <c r="AA43" s="97"/>
-      <c r="AB43" s="97"/>
-      <c r="AC43" s="97"/>
-      <c r="AD43" s="97"/>
-      <c r="AE43" s="97"/>
-      <c r="AF43" s="97"/>
-      <c r="AG43" s="97"/>
-      <c r="AH43" s="97"/>
-    </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A44" s="97"/>
-      <c r="B44" s="97"/>
-      <c r="C44" s="97"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="97"/>
-      <c r="F44" s="97"/>
-      <c r="G44" s="97"/>
-      <c r="H44" s="97"/>
-      <c r="I44" s="97"/>
-      <c r="J44" s="97"/>
-      <c r="K44" s="97"/>
-      <c r="L44" s="97"/>
-      <c r="M44" s="97"/>
-      <c r="N44" s="97"/>
-      <c r="O44" s="97"/>
-      <c r="P44" s="97"/>
-      <c r="Q44" s="97"/>
-      <c r="R44" s="97"/>
-      <c r="S44" s="97"/>
-      <c r="T44" s="97"/>
-      <c r="U44" s="97"/>
-      <c r="V44" s="97"/>
-      <c r="W44" s="97"/>
-      <c r="X44" s="97"/>
-      <c r="Y44" s="97"/>
-      <c r="Z44" s="97"/>
-      <c r="AA44" s="97"/>
-      <c r="AB44" s="97"/>
-      <c r="AC44" s="97"/>
-      <c r="AD44" s="97"/>
-      <c r="AE44" s="97"/>
-      <c r="AF44" s="97"/>
-      <c r="AG44" s="97"/>
-      <c r="AH44" s="97"/>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A45" s="97"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="97"/>
-      <c r="F45" s="97"/>
-      <c r="G45" s="97"/>
-      <c r="H45" s="97"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="97"/>
-      <c r="K45" s="97"/>
-      <c r="L45" s="97"/>
-      <c r="M45" s="97"/>
-      <c r="N45" s="97"/>
-      <c r="O45" s="97"/>
-      <c r="P45" s="97"/>
-      <c r="Q45" s="97"/>
-      <c r="R45" s="97"/>
-      <c r="S45" s="97"/>
-      <c r="T45" s="97"/>
-      <c r="U45" s="97"/>
-      <c r="V45" s="97"/>
-      <c r="W45" s="97"/>
-      <c r="X45" s="97"/>
-      <c r="Y45" s="97"/>
-      <c r="Z45" s="97"/>
-      <c r="AA45" s="97"/>
-      <c r="AB45" s="97"/>
-      <c r="AC45" s="97"/>
-      <c r="AD45" s="97"/>
-      <c r="AE45" s="97"/>
-      <c r="AF45" s="97"/>
-      <c r="AG45" s="97"/>
-      <c r="AH45" s="97"/>
-    </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A46" s="97"/>
-      <c r="B46" s="97"/>
-      <c r="C46" s="97"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="97"/>
-      <c r="F46" s="97"/>
-      <c r="G46" s="97"/>
-      <c r="H46" s="97"/>
-      <c r="I46" s="97"/>
-      <c r="J46" s="97"/>
-      <c r="K46" s="97"/>
-      <c r="L46" s="97"/>
-      <c r="M46" s="97"/>
-      <c r="N46" s="97"/>
-      <c r="O46" s="97"/>
-      <c r="P46" s="97"/>
-      <c r="Q46" s="97"/>
-      <c r="R46" s="97"/>
-      <c r="S46" s="97"/>
-      <c r="T46" s="97"/>
-      <c r="U46" s="97"/>
-      <c r="V46" s="97"/>
-      <c r="W46" s="97"/>
-      <c r="X46" s="97"/>
-      <c r="Y46" s="97"/>
-      <c r="Z46" s="97"/>
-      <c r="AA46" s="97"/>
-      <c r="AB46" s="97"/>
-      <c r="AC46" s="97"/>
-      <c r="AD46" s="97"/>
-      <c r="AE46" s="97"/>
-      <c r="AF46" s="97"/>
-      <c r="AG46" s="97"/>
-      <c r="AH46" s="97"/>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A47" s="99"/>
-      <c r="B47" s="99"/>
-      <c r="C47" s="99"/>
-      <c r="D47" s="99"/>
-      <c r="E47" s="99"/>
-      <c r="F47" s="99"/>
-      <c r="G47" s="99"/>
-      <c r="H47" s="99"/>
-      <c r="I47" s="99"/>
-      <c r="J47" s="99"/>
-      <c r="K47" s="99"/>
-      <c r="L47" s="99"/>
-      <c r="M47" s="99"/>
-      <c r="N47" s="99"/>
-      <c r="O47" s="99"/>
-      <c r="P47" s="99"/>
-      <c r="Q47" s="99"/>
-      <c r="R47" s="99"/>
-      <c r="S47" s="99"/>
-      <c r="T47" s="99"/>
-      <c r="U47" s="99"/>
-      <c r="V47" s="99"/>
-      <c r="W47" s="99"/>
-      <c r="X47" s="99"/>
-      <c r="Y47" s="99"/>
-      <c r="Z47" s="99"/>
-      <c r="AA47" s="99"/>
-      <c r="AB47" s="99"/>
-      <c r="AC47" s="99"/>
-      <c r="AD47" s="99"/>
-      <c r="AE47" s="99"/>
-      <c r="AF47" s="99"/>
-      <c r="AG47" s="99"/>
-      <c r="AH47" s="99"/>
-    </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A48" s="100" t="s">
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B48" s="101"/>
-      <c r="C48" s="101"/>
-      <c r="D48" s="101"/>
-      <c r="E48" s="101"/>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="101"/>
-      <c r="N48" s="101"/>
-      <c r="O48" s="101"/>
-      <c r="P48" s="101"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="101"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="101"/>
-      <c r="U48" s="101"/>
-      <c r="V48" s="101"/>
-      <c r="W48" s="101"/>
-      <c r="X48" s="101"/>
-      <c r="Y48" s="101"/>
-      <c r="Z48" s="101"/>
-      <c r="AA48" s="101"/>
-      <c r="AB48" s="101"/>
-      <c r="AC48" s="101"/>
-      <c r="AD48" s="101"/>
-      <c r="AE48" s="101"/>
-      <c r="AF48" s="101"/>
-      <c r="AG48" s="101"/>
-      <c r="AH48" s="102"/>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A49" s="103" t="s">
+      <c r="N49" s="29"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="29"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
+      <c r="S49" s="29"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="29"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="30"/>
+      <c r="X49" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y49" s="29"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="30"/>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
         <v>137</v>
       </c>
-      <c r="B49" s="104"/>
-      <c r="C49" s="104"/>
-      <c r="D49" s="104"/>
-      <c r="E49" s="104"/>
-      <c r="F49" s="104"/>
-      <c r="G49" s="104"/>
-      <c r="H49" s="104"/>
-      <c r="I49" s="104"/>
-      <c r="J49" s="104"/>
-      <c r="K49" s="104"/>
-      <c r="L49" s="105"/>
-      <c r="M49" s="103" t="s">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="N49" s="104"/>
-      <c r="O49" s="104"/>
-      <c r="P49" s="104"/>
-      <c r="Q49" s="104"/>
-      <c r="R49" s="104"/>
-      <c r="S49" s="104"/>
-      <c r="T49" s="104"/>
-      <c r="U49" s="104"/>
-      <c r="V49" s="104"/>
-      <c r="W49" s="105"/>
-      <c r="X49" s="103" t="s">
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="18"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="18"/>
+      <c r="V50" s="18"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="Y49" s="104"/>
-      <c r="Z49" s="104"/>
-      <c r="AA49" s="104"/>
-      <c r="AB49" s="104"/>
-      <c r="AC49" s="104"/>
-      <c r="AD49" s="104"/>
-      <c r="AE49" s="104"/>
-      <c r="AF49" s="104"/>
-      <c r="AG49" s="104"/>
-      <c r="AH49" s="105"/>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A50" s="111" t="s">
+      <c r="Y50" s="18"/>
+      <c r="Z50" s="18"/>
+      <c r="AA50" s="18"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
+      <c r="AE50" s="18"/>
+      <c r="AF50" s="18"/>
+      <c r="AG50" s="18"/>
+      <c r="AH50" s="19"/>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A51" s="14"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="15"/>
+      <c r="S51" s="15"/>
+      <c r="T51" s="15"/>
+      <c r="U51" s="15"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="14"/>
+      <c r="Y51" s="15"/>
+      <c r="Z51" s="15"/>
+      <c r="AA51" s="15"/>
+      <c r="AB51" s="15"/>
+      <c r="AC51" s="15"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="15"/>
+      <c r="AH51" s="16"/>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A52" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="112"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="112"/>
-      <c r="L50" s="113"/>
-      <c r="M50" s="111" t="s">
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="21"/>
+      <c r="H52" s="21"/>
+      <c r="I52" s="21"/>
+      <c r="J52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
+      <c r="R52" s="21"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="21"/>
+      <c r="U52" s="21"/>
+      <c r="V52" s="21"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y52" s="21"/>
+      <c r="Z52" s="21"/>
+      <c r="AA52" s="21"/>
+      <c r="AB52" s="21"/>
+      <c r="AC52" s="21"/>
+      <c r="AD52" s="21"/>
+      <c r="AE52" s="21"/>
+      <c r="AF52" s="21"/>
+      <c r="AG52" s="21"/>
+      <c r="AH52" s="22"/>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A53" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="N50" s="112"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="112"/>
-      <c r="Q50" s="112"/>
-      <c r="R50" s="112"/>
-      <c r="S50" s="112"/>
-      <c r="T50" s="112"/>
-      <c r="U50" s="112"/>
-      <c r="V50" s="112"/>
-      <c r="W50" s="113"/>
-      <c r="X50" s="111" t="s">
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="21"/>
+      <c r="I53" s="21"/>
+      <c r="J53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="Y50" s="112"/>
-      <c r="Z50" s="112"/>
-      <c r="AA50" s="112"/>
-      <c r="AB50" s="112"/>
-      <c r="AC50" s="112"/>
-      <c r="AD50" s="112"/>
-      <c r="AE50" s="112"/>
-      <c r="AF50" s="112"/>
-      <c r="AG50" s="112"/>
-      <c r="AH50" s="113"/>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="16"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
-      <c r="V51" s="17"/>
-      <c r="W51" s="18"/>
-      <c r="X51" s="16"/>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17"/>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17"/>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
-      <c r="AG51" s="17"/>
-      <c r="AH51" s="18"/>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A52" s="108" t="s">
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="21"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="21"/>
+      <c r="U53" s="21"/>
+      <c r="V53" s="21"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y53" s="21"/>
+      <c r="Z53" s="21"/>
+      <c r="AA53" s="21"/>
+      <c r="AB53" s="21"/>
+      <c r="AC53" s="21"/>
+      <c r="AD53" s="21"/>
+      <c r="AE53" s="21"/>
+      <c r="AF53" s="21"/>
+      <c r="AG53" s="21"/>
+      <c r="AH53" s="22"/>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A54" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="B52" s="109"/>
-      <c r="C52" s="109"/>
-      <c r="D52" s="109"/>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-      <c r="J52" s="109"/>
-      <c r="K52" s="109"/>
-      <c r="L52" s="110"/>
-      <c r="M52" s="108" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="N52" s="109"/>
-      <c r="O52" s="109"/>
-      <c r="P52" s="109"/>
-      <c r="Q52" s="109"/>
-      <c r="R52" s="109"/>
-      <c r="S52" s="109"/>
-      <c r="T52" s="109"/>
-      <c r="U52" s="109"/>
-      <c r="V52" s="109"/>
-      <c r="W52" s="110"/>
-      <c r="X52" s="108" t="s">
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="24"/>
+      <c r="X54" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="Y52" s="109"/>
-      <c r="Z52" s="109"/>
-      <c r="AA52" s="109"/>
-      <c r="AB52" s="109"/>
-      <c r="AC52" s="109"/>
-      <c r="AD52" s="109"/>
-      <c r="AE52" s="109"/>
-      <c r="AF52" s="109"/>
-      <c r="AG52" s="109"/>
-      <c r="AH52" s="110"/>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A53" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="B53" s="109"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="109"/>
-      <c r="L53" s="110"/>
-      <c r="M53" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="N53" s="109"/>
-      <c r="O53" s="109"/>
-      <c r="P53" s="109"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="109"/>
-      <c r="T53" s="109"/>
-      <c r="U53" s="109"/>
-      <c r="V53" s="109"/>
-      <c r="W53" s="110"/>
-      <c r="X53" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y53" s="109"/>
-      <c r="Z53" s="109"/>
-      <c r="AA53" s="109"/>
-      <c r="AB53" s="109"/>
-      <c r="AC53" s="109"/>
-      <c r="AD53" s="109"/>
-      <c r="AE53" s="109"/>
-      <c r="AF53" s="109"/>
-      <c r="AG53" s="109"/>
-      <c r="AH53" s="110"/>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A54" s="106" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="106"/>
-      <c r="C54" s="106"/>
-      <c r="D54" s="106"/>
-      <c r="E54" s="106"/>
-      <c r="F54" s="106"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
-      <c r="J54" s="106"/>
-      <c r="K54" s="106"/>
-      <c r="L54" s="107"/>
-      <c r="M54" s="106" t="s">
-        <v>143</v>
-      </c>
-      <c r="N54" s="106"/>
-      <c r="O54" s="106"/>
-      <c r="P54" s="106"/>
-      <c r="Q54" s="106"/>
-      <c r="R54" s="106"/>
-      <c r="S54" s="106"/>
-      <c r="T54" s="106"/>
-      <c r="U54" s="106"/>
-      <c r="V54" s="106"/>
-      <c r="W54" s="107"/>
-      <c r="X54" s="106" t="s">
-        <v>143</v>
-      </c>
-      <c r="Y54" s="106"/>
-      <c r="Z54" s="106"/>
-      <c r="AA54" s="106"/>
-      <c r="AB54" s="106"/>
-      <c r="AC54" s="106"/>
-      <c r="AD54" s="106"/>
-      <c r="AE54" s="106"/>
-      <c r="AF54" s="106"/>
-      <c r="AG54" s="106"/>
-      <c r="AH54" s="107"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="23"/>
+      <c r="AD54" s="23"/>
+      <c r="AE54" s="23"/>
+      <c r="AF54" s="23"/>
+      <c r="AG54" s="23"/>
+      <c r="AH54" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="282">
-    <mergeCell ref="A50:L50"/>
-    <mergeCell ref="M50:W50"/>
-    <mergeCell ref="X50:AH50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:L52"/>
-    <mergeCell ref="M52:O52"/>
-    <mergeCell ref="P52:W52"/>
-    <mergeCell ref="X52:Z52"/>
-    <mergeCell ref="AA52:AH52"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:L54"/>
-    <mergeCell ref="M54:O54"/>
-    <mergeCell ref="P54:W54"/>
-    <mergeCell ref="X54:Z54"/>
-    <mergeCell ref="AA54:AH54"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:L53"/>
-    <mergeCell ref="M53:O53"/>
-    <mergeCell ref="P53:W53"/>
-    <mergeCell ref="X53:Z53"/>
-    <mergeCell ref="AA53:AH53"/>
-    <mergeCell ref="A48:AH48"/>
-    <mergeCell ref="A49:L49"/>
-    <mergeCell ref="M49:W49"/>
-    <mergeCell ref="X49:AH49"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="B39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="B40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="A41:AH41"/>
-    <mergeCell ref="A42:AH47"/>
-    <mergeCell ref="AE36:AF36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:AH40"/>
-    <mergeCell ref="B38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:T34"/>
-    <mergeCell ref="B35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="Q35:AH35"/>
-    <mergeCell ref="V34:AH34"/>
-    <mergeCell ref="AE32:AF32"/>
-    <mergeCell ref="AG32:AH32"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="AE33:AF33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="R32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="AE30:AF30"/>
-    <mergeCell ref="AG30:AH30"/>
-    <mergeCell ref="B31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="R31:AA31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="AE31:AF31"/>
-    <mergeCell ref="AG31:AH31"/>
-    <mergeCell ref="B30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="R30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="AE28:AF28"/>
-    <mergeCell ref="AG28:AH28"/>
-    <mergeCell ref="A29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="R29:AA29"/>
-    <mergeCell ref="AB29:AC29"/>
-    <mergeCell ref="AE29:AF29"/>
-    <mergeCell ref="AG29:AH29"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="R28:AA28"/>
-    <mergeCell ref="AB28:AC28"/>
-    <mergeCell ref="AE26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="R27:AA27"/>
-    <mergeCell ref="AB27:AC27"/>
-    <mergeCell ref="AE27:AF27"/>
-    <mergeCell ref="AG27:AH27"/>
-    <mergeCell ref="B26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="R26:AA26"/>
-    <mergeCell ref="AB26:AC26"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="R25:AA25"/>
-    <mergeCell ref="AB25:AC25"/>
-    <mergeCell ref="AE25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="B24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="R24:AA24"/>
-    <mergeCell ref="AB24:AC24"/>
-    <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="R23:AA23"/>
-    <mergeCell ref="AB23:AC23"/>
-    <mergeCell ref="AE23:AF23"/>
-    <mergeCell ref="AG23:AH23"/>
-    <mergeCell ref="B22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:AA22"/>
-    <mergeCell ref="AB22:AC22"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="B21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="R21:AA21"/>
-    <mergeCell ref="AB21:AC21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="A20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="R20:AA20"/>
-    <mergeCell ref="AB20:AC20"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="R19:AA19"/>
-    <mergeCell ref="AB19:AC19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="R18:AA18"/>
-    <mergeCell ref="AB18:AC18"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="R17:AA17"/>
-    <mergeCell ref="AB17:AC17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="R16:AA16"/>
-    <mergeCell ref="AB16:AC16"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="R15:AA15"/>
-    <mergeCell ref="AB15:AC15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:AA14"/>
-    <mergeCell ref="AB14:AC14"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="R12:AA12"/>
-    <mergeCell ref="AB12:AC12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="R13:AA13"/>
-    <mergeCell ref="AB13:AC13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="K9:S9"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:AA11"/>
-    <mergeCell ref="AB11:AC11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="O7:AH7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="K8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AH8"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="E5:J5"/>
     <mergeCell ref="K5:N5"/>
@@ -4801,6 +4526,268 @@
     <mergeCell ref="T6:X6"/>
     <mergeCell ref="Y6:AH6"/>
     <mergeCell ref="O5:AH5"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="O7:AH7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="K8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AH8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="K9:S9"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:AA11"/>
+    <mergeCell ref="AB11:AC11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="R12:AA12"/>
+    <mergeCell ref="AB12:AC12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="R13:AA13"/>
+    <mergeCell ref="AB13:AC13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="R15:AA15"/>
+    <mergeCell ref="AB15:AC15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:AA14"/>
+    <mergeCell ref="AB14:AC14"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="R17:AA17"/>
+    <mergeCell ref="AB17:AC17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="R16:AA16"/>
+    <mergeCell ref="AB16:AC16"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="R19:AA19"/>
+    <mergeCell ref="AB19:AC19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="R18:AA18"/>
+    <mergeCell ref="AB18:AC18"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="R21:AA21"/>
+    <mergeCell ref="AB21:AC21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="A20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="R20:AA20"/>
+    <mergeCell ref="AB20:AC20"/>
+    <mergeCell ref="AE22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="R23:AA23"/>
+    <mergeCell ref="AB23:AC23"/>
+    <mergeCell ref="AE23:AF23"/>
+    <mergeCell ref="AG23:AH23"/>
+    <mergeCell ref="B22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:AA22"/>
+    <mergeCell ref="AB22:AC22"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="R25:AA25"/>
+    <mergeCell ref="AB25:AC25"/>
+    <mergeCell ref="AE25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="R24:AA24"/>
+    <mergeCell ref="AB24:AC24"/>
+    <mergeCell ref="AE26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="R27:AA27"/>
+    <mergeCell ref="AB27:AC27"/>
+    <mergeCell ref="AE27:AF27"/>
+    <mergeCell ref="AG27:AH27"/>
+    <mergeCell ref="B26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="R26:AA26"/>
+    <mergeCell ref="AB26:AC26"/>
+    <mergeCell ref="AE28:AF28"/>
+    <mergeCell ref="AG28:AH28"/>
+    <mergeCell ref="A29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="R29:AA29"/>
+    <mergeCell ref="AB29:AC29"/>
+    <mergeCell ref="AE29:AF29"/>
+    <mergeCell ref="AG29:AH29"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="R28:AA28"/>
+    <mergeCell ref="AB28:AC28"/>
+    <mergeCell ref="AE30:AF30"/>
+    <mergeCell ref="AG30:AH30"/>
+    <mergeCell ref="B31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="R31:AA31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="AE31:AF31"/>
+    <mergeCell ref="AG31:AH31"/>
+    <mergeCell ref="B30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="R30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="AE32:AF32"/>
+    <mergeCell ref="AG32:AH32"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="AE33:AF33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="R32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:T34"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="Q35:AH35"/>
+    <mergeCell ref="V34:AH34"/>
+    <mergeCell ref="AE36:AF36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:AH40"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="A48:AH48"/>
+    <mergeCell ref="A49:L49"/>
+    <mergeCell ref="M49:W49"/>
+    <mergeCell ref="X49:AH49"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="B39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="B40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="A41:AH41"/>
+    <mergeCell ref="A42:AH47"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:L54"/>
+    <mergeCell ref="M54:O54"/>
+    <mergeCell ref="P54:W54"/>
+    <mergeCell ref="X54:Z54"/>
+    <mergeCell ref="AA54:AH54"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P53:W53"/>
+    <mergeCell ref="X53:Z53"/>
+    <mergeCell ref="AA53:AH53"/>
+    <mergeCell ref="A50:L50"/>
+    <mergeCell ref="M50:W50"/>
+    <mergeCell ref="X50:AH50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:L52"/>
+    <mergeCell ref="M52:O52"/>
+    <mergeCell ref="P52:W52"/>
+    <mergeCell ref="X52:Z52"/>
+    <mergeCell ref="AA52:AH52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4809,21 +4796,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D262036FF67A5D43BF6E290DEB360352" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="807eb2660dd8ce2169584ac47dcb7049">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e744003-367c-4be8-bc40-2385cb622540" xmlns:ns3="0930cf9b-719b-4120-8db4-f84070340397" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ff3b9ec0591c1e5bf852b570c8721a7" ns2:_="" ns3:_="">
     <xsd:import namespace="4e744003-367c-4be8-bc40-2385cb622540"/>
@@ -5046,32 +5018,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D922F287-5AB0-4BC3-AA12-09BA2EE5889D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F118502C-F62B-4199-AF8C-AC0190518B17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2413DD6D-ED29-4ADE-BE81-9FAECFFA8200}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5088,4 +5050,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F118502C-F62B-4199-AF8C-AC0190518B17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D922F287-5AB0-4BC3-AA12-09BA2EE5889D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="4e744003-367c-4be8-bc40-2385cb622540"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0930cf9b-719b-4120-8db4-f84070340397"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>